--- a/gene_ontology_analysis/master_go_analysis.xlsx
+++ b/gene_ontology_analysis/master_go_analysis.xlsx
@@ -8,19 +8,32 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/beyzakaya/Desktop/temporal gene/gene_ontology_analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{757BD994-EE6C-6744-97E9-5F8139186ED2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F38264BD-153F-EA43-B4A2-F15301399924}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="General_Analysis" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="308">
   <si>
     <t>Temporal_Pattern</t>
   </si>
@@ -220,12 +233,6 @@
     <t>organic substance transport (GO:0071702) (p=2.52e-02); xenobiotic transport (GO:0042908) (p=3.44e-02)</t>
   </si>
   <si>
-    <t>organic substance transport (GO:0071702) (p=2.52e-02); fatty acid beta-oxidation using acyl-CoA oxidase (GO:0033540) (p=2.94e-02)</t>
-  </si>
-  <si>
-    <t>vascular transport (GO:0010232) (p=9.44e-03); transport across blood-brain barrier (GO:0150104) (p=9.44e-03); organic substance transport (GO:0071702) (p=2.52e-02); xenobiotic transport (GO:0042908) (p=3.44e-02); heme biosynthetic process (GO:0006783) (p=3.68e-02); porphyrin-containing compound biosynthetic process (GO:0006779) (p=3.85e-02)</t>
-  </si>
-  <si>
     <t>negative regulation of transmembrane receptor protein serine/threonine kinase signaling pathway (GO:0090101) (p=4.41e-02)</t>
   </si>
   <si>
@@ -235,12 +242,6 @@
     <t>fatty acid beta-oxidation using acyl-CoA oxidase (GO:0033540) (p=2.94e-02)</t>
   </si>
   <si>
-    <t>regulation of apoptotic process (GO:0042981) (p=2.73e-02); negative regulation of programmed cell death (GO:0043069) (p=4.41e-02); positive regulation of B cell proliferation (GO:0030890) (p=4.41e-02)</t>
-  </si>
-  <si>
-    <t>regulation of protein phosphorylation (GO:0001932) (p=2.01e-04); positive regulation of phosphorylation (GO:0042327) (p=1.05e-03); positive regulation of protein modification process (GO:0031401) (p=3.60e-03); regulation of stress-activated MAPK cascade (GO:0032872) (p=2.52e-02); positive regulation of protein phosphorylation (GO:0001934) (p=2.52e-02); regulation of ERK1 and ERK2 cascade (GO:0070372) (p=2.52e-02); positive regulation of production of miRNAs involved in gene silencing by miRNA (GO:1903800) (p=2.52e-02); regulation of apoptotic process (GO:0042981) (p=2.73e-02); positive regulation of MAP kinase activity (GO:0043406) (p=2.94e-02); positive regulation of protein kinase B signaling (GO:0051897) (p=2.94e-02); regulation of production of miRNAs involved in gene silencing by miRNA (GO:1903798) (p=3.28e-02); positive regulation of gene expression (GO:0010628) (p=3.44e-02); regulation of peptidyl-tyrosine phosphorylation (GO:0050730) (p=3.85e-02); regulation of epithelial cell proliferation (GO:0050678) (p=3.85e-02); positive regulation of peptidyl-serine phosphorylation (GO:0033138) (p=3.85e-02); regulation of protein kinase B signaling (GO:0051896) (p=3.90e-02); regulation of MAP kinase activity (GO:0043405) (p=3.90e-02); regulation of peptidyl-serine phosphorylation (GO:0033135) (p=3.91e-02); positive regulation of gene silencing by miRNA (GO:2000637) (p=4.23e-02); positive regulation of intracellular signal transduction (GO:1902533) (p=4.32e-02); positive regulation of protein serine/threonine kinase activity (GO:0071902) (p=4.41e-02); negative regulation of programmed cell death (GO:0043069) (p=4.41e-02); regulation of cell migration (GO:0030334) (p=4.90e-02)</t>
-  </si>
-  <si>
     <t>regulation of protein phosphorylation (GO:0001932) (p=2.01e-04); positive regulation of phosphorylation (GO:0042327) (p=1.05e-03); regulation of ERK1 and ERK2 cascade (GO:0070372) (p=2.52e-02); regulation of peptidyl-tyrosine phosphorylation (GO:0050730) (p=3.85e-02)</t>
   </si>
   <si>
@@ -259,9 +260,6 @@
     <t>vascular transport (GO:0010232) (p=9.44e-03); transport across blood-brain barrier (GO:0150104) (p=9.44e-03); organic substance transport (GO:0071702) (p=2.52e-02); regulation of apoptotic process (GO:0042981) (p=2.73e-02); positive regulation of protein kinase B signaling (GO:0051897) (p=2.94e-02); regulation of protein kinase B signaling (GO:0051896) (p=3.90e-02); positive regulation of intracellular signal transduction (GO:1902533) (p=4.32e-02); negative regulation of programmed cell death (GO:0043069) (p=4.41e-02); negative regulation of transmembrane receptor protein serine/threonine kinase signaling pathway (GO:0090101) (p=4.41e-02); primary neural tube formation (GO:0014020) (p=4.41e-02); tube closure (GO:0060606) (p=4.60e-02); neural tube closure (GO:0001843) (p=4.90e-02); ventricular cardiac muscle tissue morphogenesis (GO:0055010) (p=4.90e-02)</t>
   </si>
   <si>
-    <t>membrane protein intracellular domain proteolysis (GO:0031293) (p=3.68e-02); regulation of cell migration (GO:0030334) (p=4.90e-02)</t>
-  </si>
-  <si>
     <t>regulation of protein phosphorylation (GO:0001932) (p=2.01e-04); positive regulation of phosphorylation (GO:0042327) (p=1.05e-03); positive regulation of protein modification process (GO:0031401) (p=3.60e-03); regulation of stress-activated MAPK cascade (GO:0032872) (p=2.52e-02); positive regulation of protein phosphorylation (GO:0001934) (p=2.52e-02); regulation of apoptotic process (GO:0042981) (p=2.73e-02); negative regulation of protein phosphorylation (GO:0001933) (p=2.94e-02); negative regulation of protein modification process (GO:0031400) (p=3.44e-02); negative regulation of phosphorylation (GO:0042326) (p=3.68e-02); positive regulation of dephosphorylation (GO:0035306) (p=4.41e-02); positive regulation of protein dephosphorylation (GO:0035307) (p=4.90e-02)</t>
   </si>
   <si>
@@ -280,9 +278,6 @@
     <t>positive regulation of cellular extravasation (GO:0002693) (p=2.52e-02); negative regulation of protein phosphorylation (GO:0001933) (p=2.94e-02); positive regulation of heterotypic cell-cell adhesion (GO:0034116) (p=2.94e-02); negative regulation of developmental process (GO:0051093) (p=3.28e-02); regulation of heterotypic cell-cell adhesion (GO:0034114) (p=3.90e-02); regulation of cell migration (GO:0030334) (p=4.90e-02)</t>
   </si>
   <si>
-    <t>positive regulation of collagen biosynthetic process (GO:0032967) (p=2.94e-02); positive regulation of collagen metabolic process (GO:0010714) (p=3.16e-02); regulation of collagen biosynthetic process (GO:0032965) (p=3.44e-02); positive regulation of gene expression (GO:0010628) (p=3.44e-02)</t>
-  </si>
-  <si>
     <t>regulation of ERK1 and ERK2 cascade (GO:0070372) (p=2.52e-02); regulation of apoptotic process (GO:0042981) (p=2.73e-02); negative regulation of programmed cell death (GO:0043069) (p=4.41e-02)</t>
   </si>
   <si>
@@ -316,15 +311,9 @@
     <t>focal adhesion (GO:0005925) (p=1.54e-02); cell-substrate junction (GO:0030055) (p=1.54e-02); peroxisome (GO:0005777) (p=3.81e-02)</t>
   </si>
   <si>
-    <t>xenobiotic transport across blood-brain barrier (GO:1990962) (p=7.23e-03); urate metabolic process (GO:0046415) (p=7.23e-03); heme catabolic process (GO:0042167) (p=7.23e-03); transepithelial transport (GO:0070633) (p=7.23e-03); porphyrin-containing compound catabolic process (GO:0006787) (p=7.23e-03); xenobiotic transport (GO:0042908) (p=7.23e-03); heme biosynthetic process (GO:0006783) (p=7.23e-03); porphyrin-containing compound biosynthetic process (GO:0006779) (p=7.23e-03); sulfur compound transport (GO:0072348) (p=7.23e-03); amide transport (GO:0042886) (p=7.23e-03); vitamin transport (GO:0051180) (p=7.30e-03); anion transport (GO:0006820) (p=8.88e-03); monocarboxylic acid transport (GO:0015718) (p=9.14e-03); cellular iron ion homeostasis (GO:0006879) (p=9.14e-03); iron ion homeostasis (GO:0055072) (p=9.14e-03); vascular transport (GO:0010232) (p=1.11e-02); transport across blood-brain barrier (GO:0150104) (p=1.11e-02); cellular transition metal ion homeostasis (GO:0046916) (p=1.15e-02); organic anion transport (GO:0015711) (p=1.15e-02); organic acid transport (GO:0015849) (p=1.15e-02); organic substance transport (GO:0071702) (p=1.42e-02); nitrogen compound transport (GO:0071705) (p=1.42e-02)</t>
-  </si>
-  <si>
     <t>fatty acid beta-oxidation using acyl-CoA oxidase (GO:0033540) (p=7.23e-03); bile acid biosynthetic process (GO:0006699) (p=7.23e-03); bile acid metabolic process (GO:0008206) (p=7.30e-03); organic hydroxy compound biosynthetic process (GO:1901617) (p=9.14e-03); fatty acid beta-oxidation (GO:0006635) (p=9.14e-03); monocarboxylic acid biosynthetic process (GO:0072330) (p=9.14e-03); steroid biosynthetic process (GO:0006694) (p=9.14e-03); steroid metabolic process (GO:0008202) (p=1.15e-02); monocarboxylic acid metabolic process (GO:0032787) (p=1.42e-02)</t>
   </si>
   <si>
-    <t>urate transmembrane transporter activity (GO:0015143) (p=1.75e-03); riboflavin transmembrane transporter activity (GO:0032217) (p=1.75e-03); ABC-type xenobiotic transporter activity (GO:0008559) (p=2.57e-03); anion transmembrane transporter activity (GO:0008509) (p=2.97e-03); monocarboxylic acid transmembrane transporter activity (GO:0008028) (p=3.92e-03); organic anion transmembrane transporter activity (GO:0008514) (p=1.67e-02)</t>
-  </si>
-  <si>
     <t>external side of apical plasma membrane (GO:0098591) (p=4.00e-03); brush border membrane (GO:0031526) (p=9.79e-03); cell projection membrane (GO:0031253) (p=1.47e-02); membrane raft (GO:0045121) (p=1.86e-02)</t>
   </si>
   <si>
@@ -334,15 +323,6 @@
     <t>steroid metabolic process (GO:0008202) (p=4.29e-02)</t>
   </si>
   <si>
-    <t>regulation of apoptotic process (GO:0042981) (p=4.79e-03); negative regulation of programmed cell death (GO:0043069) (p=2.07e-02); positive regulation of B cell proliferation (GO:0030890) (p=2.07e-02); negative regulation of apoptotic process (GO:0043066) (p=3.17e-02); regulation of B cell proliferation (GO:0030888) (p=3.27e-02); positive regulation of B cell activation (GO:0050871) (p=3.51e-02); positive regulation of lymphocyte proliferation (GO:0050671) (p=4.29e-02)</t>
-  </si>
-  <si>
-    <t>regulation of apoptotic process (GO:0042981) (p=4.79e-03); regulation of protein phosphorylation (GO:0001932) (p=7.90e-03); negative regulation of programmed cell death (GO:0043069) (p=2.07e-02); negative regulation of apoptotic process (GO:0043066) (p=3.17e-02); membrane organization (GO:0061024) (p=3.51e-02); positive regulation of phosphorylation (GO:0042327) (p=3.55e-02); regulation of peptidyl-tyrosine phosphorylation (GO:0050730) (p=4.29e-02); positive regulation of peptidyl-serine phosphorylation (GO:0033138) (p=4.29e-02); regulation of kinase activity (GO:0043549) (p=4.29e-02); regulation of peptidyl-serine phosphorylation (GO:0033135) (p=4.29e-02); positive regulation of kinase activity (GO:0033674) (p=4.29e-02); positive regulation of protein kinase C activity (GO:1900020) (p=4.29e-02); regulation of protein kinase C activity (GO:1900019) (p=4.29e-02); regulation of nitric oxide mediated signal transduction (GO:0010749) (p=4.82e-02); enzyme linked receptor protein signaling pathway (GO:0007167) (p=4.83e-02); negative regulation of cardiocyte differentiation (GO:1905208) (p=4.83e-02); positive regulation of transferase activity (GO:0051347) (p=4.89e-02); positive regulation of gene expression (GO:0010628) (p=4.89e-02)</t>
-  </si>
-  <si>
-    <t>regulation of protein phosphorylation (GO:0001932) (p=7.90e-03); positive regulation of phosphorylation (GO:0042327) (p=3.55e-02); positive regulation of apoptotic process (GO:0043065) (p=4.29e-02); regulation of peptidyl-tyrosine phosphorylation (GO:0050730) (p=4.29e-02); regulation of kinase activity (GO:0043549) (p=4.29e-02); positive regulation of kinase activity (GO:0033674) (p=4.29e-02); enzyme linked receptor protein signaling pathway (GO:0007167) (p=4.83e-02); positive regulation of transferase activity (GO:0051347) (p=4.89e-02)</t>
-  </si>
-  <si>
     <t>regulation of apoptotic process (GO:0042981) (p=4.79e-03); regulation of protein phosphorylation (GO:0001932) (p=7.90e-03); positive regulation of apoptotic process (GO:0043065) (p=4.29e-02)</t>
   </si>
   <si>
@@ -361,12 +341,6 @@
     <t>hydrolase activity, hydrolyzing N-glycosyl compounds (GO:0016799) (p=4.37e-02)</t>
   </si>
   <si>
-    <t>transmembrane receptor protein kinase activity (GO:0019199) (p=1.42e-02); transmembrane receptor protein tyrosine kinase activity (GO:0004714) (p=1.42e-02); protein tyrosine kinase activity (GO:0004713) (p=3.14e-02); MAP kinase kinase kinase activity (GO:0004709) (p=4.37e-02)</t>
-  </si>
-  <si>
-    <t>transmembrane receptor protein kinase activity (GO:0019199) (p=1.42e-02); transmembrane receptor protein tyrosine kinase activity (GO:0004714) (p=1.42e-02); protein tyrosine kinase activity (GO:0004713) (p=3.14e-02); GPI-linked ephrin receptor activity (GO:0005004) (p=3.14e-02); transmembrane-ephrin receptor activity (GO:0005005) (p=4.37e-02); ephrin receptor activity (GO:0005003) (p=4.37e-02)</t>
-  </si>
-  <si>
     <t>protein-glutamine gamma-glutamyltransferase activity (GO:0003810) (p=3.95e-02)</t>
   </si>
   <si>
@@ -388,24 +362,15 @@
     <t>organic substance transport (GO:0071702) (p=3.56e-02)</t>
   </si>
   <si>
-    <t>xenobiotic transport (GO:0042908) (p=2.89e-02); heme biosynthetic process (GO:0006783) (p=2.89e-02); porphyrin-containing compound biosynthetic process (GO:0006779) (p=2.89e-02); organic substance transport (GO:0071702) (p=3.56e-02)</t>
-  </si>
-  <si>
     <t>heme biosynthetic process (GO:0006783) (p=2.89e-02); porphyrin-containing compound biosynthetic process (GO:0006779) (p=2.89e-02)</t>
   </si>
   <si>
     <t>positive regulation of collagen biosynthetic process (GO:0032967) (p=2.89e-02); positive regulation of collagen metabolic process (GO:0010714) (p=2.89e-02); regulation of collagen biosynthetic process (GO:0032965) (p=2.89e-02)</t>
   </si>
   <si>
-    <t>ABC-type xenobiotic transporter activity (GO:0008559) (p=3.73e-03); ATP hydrolysis activity (GO:0140603) (p=3.28e-02); nucleoside-triphosphatase activity (GO:0017111) (p=3.44e-02); phosphatidylcholine flippase activity (GO:0140345) (p=3.44e-02); phosphatidylcholine transfer activity (GO:0120019) (p=3.44e-02)</t>
-  </si>
-  <si>
     <t>ATP hydrolysis activity (GO:0140603) (p=3.28e-02); nucleoside-triphosphatase activity (GO:0017111) (p=3.44e-02)</t>
   </si>
   <si>
-    <t>ABC-type xenobiotic transporter activity (GO:0008559) (p=3.73e-03); urate transmembrane transporter activity (GO:0015143) (p=3.44e-02); riboflavin transmembrane transporter activity (GO:0032217) (p=3.44e-02)</t>
-  </si>
-  <si>
     <t>type 1 fibroblast growth factor receptor binding (GO:0005105) (p=3.44e-02); type 2 fibroblast growth factor receptor binding (GO:0005111) (p=3.44e-02)</t>
   </si>
   <si>
@@ -415,9 +380,6 @@
     <t>nucleoside-triphosphatase activity (GO:0017111) (p=3.44e-02)</t>
   </si>
   <si>
-    <t>keratin filament binding (GO:1990254) (p=3.72e-02)</t>
-  </si>
-  <si>
     <t>organic substance transport (GO:0071702) (p=3.53e-02)</t>
   </si>
   <si>
@@ -439,15 +401,6 @@
     <t>RNA biosynthetic process (GO:0032774) (p=3.86e-02)</t>
   </si>
   <si>
-    <t>urate transmembrane transporter activity (GO:0015143) (p=3.66e-02); riboflavin transmembrane transporter activity (GO:0032217) (p=3.66e-02)</t>
-  </si>
-  <si>
-    <t>transmembrane receptor protein kinase activity (GO:0019199) (p=3.18e-02); transmembrane receptor protein tyrosine kinase activity (GO:0004714) (p=3.18e-02); protein tyrosine kinase activity (GO:0004713) (p=3.66e-02)</t>
-  </si>
-  <si>
-    <t>transmembrane receptor protein kinase activity (GO:0019199) (p=3.18e-02); transmembrane receptor protein tyrosine kinase activity (GO:0004714) (p=3.18e-02); GPI-linked ephrin receptor activity (GO:0005004) (p=3.66e-02); protein tyrosine kinase activity (GO:0004713) (p=3.66e-02)</t>
-  </si>
-  <si>
     <t>type 1 fibroblast growth factor receptor binding (GO:0005105) (p=3.66e-02); type 2 fibroblast growth factor receptor binding (GO:0005111) (p=3.66e-02)</t>
   </si>
   <si>
@@ -496,9 +449,6 @@
     <t>GPI anchor binding (GO:0034235) (p=4.78e-02)</t>
   </si>
   <si>
-    <t>xenobiotic transport across blood-brain barrier (GO:1990962) (p=4.05e-02); urate metabolic process (GO:0046415) (p=4.05e-02); heme catabolic process (GO:0042167) (p=4.05e-02); transepithelial transport (GO:0070633) (p=4.05e-02); porphyrin-containing compound catabolic process (GO:0006787) (p=4.05e-02); xenobiotic transport (GO:0042908) (p=4.25e-02); heme biosynthetic process (GO:0006783) (p=4.25e-02); porphyrin-containing compound biosynthetic process (GO:0006779) (p=4.25e-02); sulfur compound transport (GO:0072348) (p=4.25e-02); amide transport (GO:0042886) (p=4.25e-02); vitamin transport (GO:0051180) (p=4.47e-02); anion transport (GO:0006820) (p=4.93e-02)</t>
-  </si>
-  <si>
     <t>regulation of endothelial cell chemotaxis to fibroblast growth factor (GO:2000544) (p=4.05e-02); positive regulation of endothelial cell chemotaxis (GO:2001028) (p=4.05e-02); regulation of sprouting angiogenesis (GO:1903670) (p=4.55e-02)</t>
   </si>
   <si>
@@ -511,9 +461,6 @@
     <t>nucleobase-containing small molecule interconversion (GO:0015949) (p=4.25e-02)</t>
   </si>
   <si>
-    <t>urate transmembrane transporter activity (GO:0015143) (p=1.27e-02); riboflavin transmembrane transporter activity (GO:0032217) (p=1.27e-02); ABC-type xenobiotic transporter activity (GO:0008559) (p=1.91e-02); anion transmembrane transporter activity (GO:0008509) (p=1.91e-02); monocarboxylic acid transmembrane transporter activity (GO:0008028) (p=2.18e-02)</t>
-  </si>
-  <si>
     <t>type 1 fibroblast growth factor receptor binding (GO:0005105) (p=1.27e-02); type 2 fibroblast growth factor receptor binding (GO:0005111) (p=1.27e-02); fibroblast growth factor receptor binding (GO:0005104) (p=2.02e-02)</t>
   </si>
   <si>
@@ -526,9 +473,6 @@
     <t>organic substance transport (GO:0071702) (p=3.35e-02)</t>
   </si>
   <si>
-    <t>fatty acid beta-oxidation using acyl-CoA oxidase (GO:0033540) (p=2.10e-02); organic substance transport (GO:0071702) (p=3.35e-02); fatty acid beta-oxidation (GO:0006635) (p=4.74e-02)</t>
-  </si>
-  <si>
     <t>negative regulation of transmembrane receptor protein serine/threonine kinase signaling pathway (GO:0090101) (p=2.53e-02)</t>
   </si>
   <si>
@@ -541,9 +485,6 @@
     <t>positive regulation of B cell proliferation (GO:0030890) (p=3.20e-02); regulation of B cell proliferation (GO:0030888) (p=4.33e-02); negative regulation of programmed cell death (GO:0043069) (p=4.74e-02); positive regulation of B cell activation (GO:0050871) (p=4.74e-02)</t>
   </si>
   <si>
-    <t>regulation of protein phosphorylation (GO:0001932) (p=2.38e-03); positive regulation of phosphorylation (GO:0042327) (p=1.59e-02); positive regulation of production of miRNAs involved in gene silencing by miRNA (GO:1903800) (p=2.10e-02); positive regulation of protein modification process (GO:0031401) (p=2.10e-02); regulation of production of miRNAs involved in gene silencing by miRNA (GO:1903798) (p=2.10e-02); regulation of peptidyl-tyrosine phosphorylation (GO:0050730) (p=2.10e-02); positive regulation of peptidyl-serine phosphorylation (GO:0033138) (p=2.10e-02); regulation of peptidyl-serine phosphorylation (GO:0033135) (p=2.22e-02); regulation of ERK1 and ERK2 cascade (GO:0070372) (p=2.22e-02); positive regulation of gene silencing by miRNA (GO:2000637) (p=3.00e-02); positive regulation of gene expression (GO:0010628) (p=3.14e-02); positive regulation of intracellular signal transduction (GO:1902533) (p=3.76e-02); response to estradiol (GO:0032355) (p=3.76e-02); positive regulation of transferase activity (GO:0051347) (p=3.76e-02); cellular response to growth factor stimulus (GO:0071363) (p=4.24e-02); positive regulation of protein kinase B signaling (GO:0051897) (p=4.24e-02); positive regulation of RNA metabolic process (GO:0051254) (p=4.33e-02); epidermal growth factor receptor signaling pathway (GO:0007173) (p=4.33e-02); positive regulation of ERK1 and ERK2 cascade (GO:0070374) (p=4.33e-02); positive regulation of protein phosphorylation (GO:0001934) (p=4.45e-02); regulation of stress-activated MAPK cascade (GO:0032872) (p=4.45e-02); negative regulation of programmed cell death (GO:0043069) (p=4.74e-02); positive regulation of NIK/NF-kappaB signaling (GO:1901224) (p=4.74e-02)</t>
-  </si>
-  <si>
     <t>regulation of protein phosphorylation (GO:0001932) (p=2.38e-03); positive regulation of phosphorylation (GO:0042327) (p=1.59e-02); regulation of peptidyl-tyrosine phosphorylation (GO:0050730) (p=2.10e-02); regulation of ERK1 and ERK2 cascade (GO:0070372) (p=2.22e-02); positive regulation of transferase activity (GO:0051347) (p=3.76e-02); regulation of cell-cell adhesion (GO:0022407) (p=4.24e-02)</t>
   </si>
   <si>
@@ -565,9 +506,6 @@
     <t>regulation of protein phosphorylation (GO:0001932) (p=2.38e-03); positive regulation of phosphorylation (GO:0042327) (p=1.59e-02); positive regulation of production of miRNAs involved in gene silencing by miRNA (GO:1903800) (p=2.10e-02); positive regulation of collagen biosynthetic process (GO:0032967) (p=2.10e-02); positive regulation of isotype switching (GO:0045830) (p=2.10e-02); positive regulation of collagen metabolic process (GO:0010714) (p=2.10e-02); positive regulation of protein modification process (GO:0031401) (p=2.10e-02); regulation of production of miRNAs involved in gene silencing by miRNA (GO:1903798) (p=2.10e-02); regulation of collagen biosynthetic process (GO:0032965) (p=2.10e-02); regulation of peptidyl-tyrosine phosphorylation (GO:0050730) (p=2.10e-02); positive regulation of peptidyl-serine phosphorylation (GO:0033138) (p=2.10e-02); regulation of peptidyl-serine phosphorylation (GO:0033135) (p=2.22e-02); regulation of ERK1 and ERK2 cascade (GO:0070372) (p=2.22e-02); membrane protein intracellular domain proteolysis (GO:0031293) (p=2.22e-02); negative regulation of transmembrane receptor protein serine/threonine kinase signaling pathway (GO:0090101) (p=2.53e-02); positive regulation of gene silencing by miRNA (GO:2000637) (p=3.00e-02); positive regulation of gene expression (GO:0010628) (p=3.14e-02); primary neural tube formation (GO:0014020) (p=3.20e-02); tube closure (GO:0060606) (p=3.27e-02); neural tube closure (GO:0001843) (p=3.35e-02); regulation of myoblast differentiation (GO:0045661) (p=3.35e-02); ventricular cardiac muscle tissue morphogenesis (GO:0055010) (p=3.35e-02); positive regulation of intracellular signal transduction (GO:1902533) (p=3.76e-02); response to estradiol (GO:0032355) (p=3.76e-02); positive regulation of transferase activity (GO:0051347) (p=3.76e-02); membrane protein proteolysis (GO:0033619) (p=3.83e-02); cellular response to growth factor stimulus (GO:0071363) (p=4.24e-02); positive regulation of protein kinase B signaling (GO:0051897) (p=4.24e-02); regulation of cell-cell adhesion (GO:0022407) (p=4.24e-02); positive regulation of biosynthetic process (GO:0009891) (p=4.31e-02); positive regulation of RNA metabolic process (GO:0051254) (p=4.33e-02); epidermal growth factor receptor signaling pathway (GO:0007173) (p=4.33e-02); regulation of protein localization to nucleus (GO:1900180) (p=4.33e-02); positive regulation of ERK1 and ERK2 cascade (GO:0070374) (p=4.33e-02); positive regulation of protein phosphorylation (GO:0001934) (p=4.45e-02)</t>
   </si>
   <si>
-    <t>positive regulation of collagen biosynthetic process (GO:0032967) (p=2.10e-02); positive regulation of collagen metabolic process (GO:0010714) (p=2.10e-02); regulation of collagen biosynthetic process (GO:0032965) (p=2.10e-02); positive regulation of gene expression (GO:0010628) (p=3.14e-02); positive regulation of biosynthetic process (GO:0009891) (p=4.31e-02)</t>
-  </si>
-  <si>
     <t>insulin-like growth factor I binding (GO:0031994) (p=9.64e-03); insulin-like growth factor binding (GO:0005520) (p=9.64e-03)</t>
   </si>
   <si>
@@ -613,6 +551,15 @@
     <t>color meaning disease relevance from wikigenes</t>
   </si>
   <si>
+    <t>Expression level in STGCN model</t>
+  </si>
+  <si>
+    <t xml:space="preserve">High expr </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">ABCA3 plays a key role in lipid transport and secretion, especially in the lungs, where it helps produce surfactant (essential for lung function). </t>
+    </r>
     <r>
       <rPr>
         <b/>
@@ -620,6 +567,90 @@
         <color rgb="FF00B050"/>
         <rFont val="Calibri (Body)"/>
       </rPr>
+      <t>Temporal regulation of drug transport → Indicates ABCA3's dynamic activity over time in handling xenobiotics. Xenobiotic transporter activity → Matches the efflux role WikiGenes describes.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>The fact that ABCA3 is associated with drug transport in go terms confirms it may help cells cope with toxic environments. Higher expression of ABCA3 in specific conditions, it could suggest an adaptive response to drug exposure or stress.</t>
+    </r>
+  </si>
+  <si>
+    <t>color meaning high impact information from wikigenes</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">ABCA3 and </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>ABCG2 (co-regulated genes and in out dataset ABCG2 is also appear)</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> work together to help cells expel cytotoxic drugs.  Both transporters are part of the multidrug resistance (MDR) system, protecting against toxins and oxidative stress. ABCG2 gene is upregulated but ABCA3 is a stable gene in terms of temporally so there can be sequential activation in drug resistance pathways.</t>
+    </r>
+  </si>
+  <si>
+    <t>Surfactant Homeostasis confirms ABCA3’s role in lipid transport for surfactant production in the lungs. Chemical Homeostasis Within a Tissue term suggests ABCA3 is involved in maintaining the chemical balance (lipids, ions, surfactant proteins) within lung tissue (helping in alveolar stability and function). If ABCA3 is under chemical homeostasis, it supports the idea that it is necessary for lung tissue stability—further proving its role in disease prevention. SFTPD is also in our gene set, it suggests that ABCA3 is part of a broader surfactant regulation network. ABCA3 mutations → Surfactant dysfunction → Impaired SFTPD activity → Higher risk of lung disease.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">ABC-type xenobiotic transporter activity (GO:0008559) (p=3.73e-03); </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="5" tint="-0.499984740745262"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>ATP hydrolysis activity</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (GO:0140603) (p=3.28e-02); nucleoside-triphosphatase activity (GO:0017111) (p=3.44e-02); phosphatidylcholine flippase activity (GO:0140345) (p=3.44e-02); phosphatidylcholine transfer activity (GO:0120019) (p=3.44e-02)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
       <t>drug transport</t>
     </r>
     <r>
@@ -630,7 +661,102 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> (GO:0015893) (p=4.53e-02); surfactant homeostasis (GO:0043129) (p=4.53e-02); chemical homeostasis within a tissue (GO:0048875) (p=4.53e-02); regulation of phospholipid transport (GO:2001138) (p=4.53e-02); regulation of nitrogen compound metabolic process (GO:0051171) (p=4.53e-02); regulation of phospholipid metabolic process (GO:1903725) (p=4.58e-02); positive regulation of phospholipid transport (GO:2001140) (p=4.58e-02); </t>
+      <t xml:space="preserve"> (GO:0015893) (p=4.53e-02); </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>surfactant homeostasis</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (GO:0043129) (p=4.53e-02); </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>chemical homeostasis within a tissue</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (GO:0048875) (p=4.53e-02);</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="5" tint="-0.499984740745262"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t xml:space="preserve"> regulation of phospholipid transport</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (GO:2001138) (p=4.53e-02); regulation of nitrogen compound metabolic process (GO:0051171) (p=4.53e-02);</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="5" tint="-0.499984740745262"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t xml:space="preserve"> regulation of phospholipid metabolic process</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (GO:1903725) (p=4.58e-02); </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="5" tint="-0.499984740745262"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>positive regulation of phospholipid transport</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (GO:2001140) (p=4.58e-02); </t>
     </r>
     <r>
       <rPr>
@@ -654,7 +780,42 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">phosphatidylcholine flippase activity (GO:0140345) (p=2.56e-02); phosphatidylcholine transfer activity (GO:0120019) (p=2.56e-02); ABC-type </t>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="5" tint="-0.499984740745262"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>phosphatidylcholine flippase activity</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (GO:0140345) (p=2.56e-02); </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="5" tint="-0.499984740745262"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>phosphatidylcholine transfer activity</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (GO:0120019) (p=2.56e-02); ABC-type </t>
     </r>
     <r>
       <rPr>
@@ -692,7 +853,26 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> (GO:0140333) (p=3.68e-02); phosphatidylcholine transporter activity (GO:0008525) (p=4.40e-02); </t>
+      <t xml:space="preserve"> (GO:0140333) (p=3.68e-02); </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="5" tint="-0.499984740745262"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>phosphatidylcholine transporter activity</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (GO:0008525) (p=4.40e-02); </t>
     </r>
     <r>
       <rPr>
@@ -715,15 +895,679 @@
     </r>
   </si>
   <si>
-    <t>Expression level in STGCN model</t>
-  </si>
-  <si>
-    <t xml:space="preserve">High expr </t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">ABCA3 plays a key role in lipid transport and secretion, especially in the lungs, where it helps produce surfactant (essential for lung function). </t>
-    </r>
+    <t>color meaning biological context from wikigenes</t>
+  </si>
+  <si>
+    <t>GO terms shows ATP hydrolysis activity and positive regulation of phospholipid transport → This means ABCA3 is an energy-dependent phospholipid transporter, critical for surfactant production. The presence of "regulation of phospholipid metabolic process" suggests ABCA3 controls lipid availability for lung function."phosphatidylcholine transporter activity" (GO:0008525) and "phosphatidylcholine flippase activity" (GO:0140345) → This confirms that ABCA3 helps move phosphatidylcholine across membranes, essential for vesicle formation. Since lamellar bodies store phospholipids like phosphatidylcholine, these GO terms suggest ABCA3 actively contributes to surfactant homeostasis.</t>
+  </si>
+  <si>
+    <t>Low expr</t>
+  </si>
+  <si>
+    <t>0.3923 (low correlated gene)</t>
+  </si>
+  <si>
+    <r>
+      <t>organic substance transport (GO:0071702) (p=2.52e-02);</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t xml:space="preserve"> fatty acid beta-oxidation using acyl-CoA oxidase</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (GO:0033540) (p=2.94e-02)</t>
+    </r>
+  </si>
+  <si>
+    <t>ABCD1 plays a key role in peroxisomal beta-oxidation by helping VLCFA transport into peroxisomes. The weak TAD boundary status suggests that regulation of ABCD1 may be less strict, potentially allowing for metabolic flexibility in lipid processing. These GO terms are enriched in the B compartment (where ABCD1 is upregulated in time series data) → ABCD1 is likely active in metabolic regulation in this compartment. these terms appear in TAD weak boundary categories, this could suggest that genes involved in peroxisomal beta-oxidation, including ABCD1, might be weakly regulated but still functional in lipid homeostasis. If ABCD1 has low expression and low correlation (0.39 validation), this could indicate that ABCD1’s metabolic role is not highly dynamic but still relevant to VLCFA degradation.</t>
+  </si>
+  <si>
+    <t>WikiGenes states that ABCD1 is crucial for VLCFA degradation, and mutations lead to their accumulation in X-linked adrenoleukodystrophy (X-ALD) so fatty acid beta-oxidation GO term confirms ABCD1's metabolic function. WikiGenes mentions ABCD1 interacts with very long-chain acyl-CoA synthetase (VLACS), which is necessary for beta-oxidation so acyl-CoA synthetase activity and fatty acid activation GO terms confirms that ABCD1's function is tightly linked to VLCFA metabolism.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>fatty acid beta-oxidation using acyl-CoA oxidase</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (GO:0033540) (p=2.10e-02); organic substance transport (GO:0071702) (p=3.35e-02); </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (GO:0006635) (p=4.74e-02)</t>
+    </r>
+  </si>
+  <si>
+    <t>Its low correlation suggests it does not strongly co-regulate with other metabolic genes, potentially due to chromatin positioning (B compartment, weak TAD boundaries). It may be an auxiliary gene in lipid metabolism, only becoming highly relevant in specific conditions such as lipid overload or stress responses. Its function might be more relevant under stress conditions (e.g., lipid accumulation or oxidative stress) rather than as a constantly active metabolic gene.</t>
+  </si>
+  <si>
+    <t>color meaning interpretations on low correlation for validation parallel with WikiGenes</t>
+  </si>
+  <si>
+    <t>BCD1’s main role is VLCFA transport, rather than direct metabolic processing. Unlike enzymes that directly participate in fatty acid beta-oxidation, ABCD1 acts upstream by delivering substrates to peroxisomes.This might explain why it does not correlate strongly with other lipid metabolism genes, as it is not rate-limiting in the pathway. ABCD1 requires ATP hydrolysis to transport VLCFAs, meaning its activity is energy-dependent and may vary under different conditions. If ATP availability fluctuates across time steps, this could introduce variable expression patterns, reducing correlation values. (Its ATP-dependent function suggests variable activity depending on cellular energy levels, potentially causing inconsistent expression patterns.)</t>
+  </si>
+  <si>
+    <t>negative 0.24 (negative correlated gene)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>ABC-type xenobiotic transporter activity</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (GO:0008559) (p=2.08e-02)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>xenobiotic transport</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (GO:0042908) (p=2.89e-02); heme biosynthetic process (GO:0006783) (p=2.89e-02); porphyrin-containing compound biosynthetic process (GO:0006779) (p=2.89e-02); organic substance transport (GO:0071702) (p=3.56e-02)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>xenobiotic transport across blood-brain barrier</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (GO:1990962) (p=4.05e-02); urate metabolic process (GO:0046415) (p=4.05e-02); heme catabolic process (GO:0042167) (p=4.05e-02); transepithelial transport (GO:0070633) (p=4.05e-02); porphyrin-containing compound catabolic process (GO:0006787) (p=4.05e-02); </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>xenobiotic transport</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (GO:0042908) (p=4.25e-02); heme biosynthetic process (GO:0006783) (p=4.25e-02); porphyrin-containing compound biosynthetic process (GO:0006779) (p=4.25e-02); sulfur compound transport (GO:0072348) (p=4.25e-02); amide transport (GO:0042886) (p=4.25e-02); vitamin transport (GO:0051180) (p=4.47e-02); anion transport (GO:0006820) (p=4.93e-02)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>urate transmembrane transporter activity (GO:0015143) (p=1.27e-02); riboflavin transmembrane transporter activity (GO:0032217) (p=1.27e-02);</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t xml:space="preserve"> ABC-type xenobiotic transporter activity</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (GO:0008559) (p=1.91e-02); anion transmembrane transporter activity (GO:0008509) (p=1.91e-02); monocarboxylic acid transmembrane transporter activity (GO:0008028) (p=2.18e-02)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>ABC-type xenobiotic transporter activity</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (GO:0008559) (p=3.73e-03); </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>urate transmembrane transporter activity</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (GO:0015143) (p=3.44e-02); </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>riboflavin transmembrane transporter activity</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (GO:0032217) (p=3.44e-02)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>urate transmembrane transporter activity</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (GO:0015143) (p=3.66e-02); </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>riboflavin transmembrane transporter activity</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (GO:0032217) (p=3.66e-02)</t>
+    </r>
+  </si>
+  <si>
+    <t>kidney</t>
+  </si>
+  <si>
+    <t>Transport across blood-brain barrier confirms ABCG2’s role in drug/metabolite transport across the BBB, supporting its function in preventing neurotoxic accumulation. Important in drug resistance &amp; neurological diseases. Xenobiotic transport directly aligns with ABCG2’s function as a multidrug transporter. Supports WikiGenes' description of ABCG2 as key for clearing harmful substances. Urate transmembrane transporter activity shows ABCG2’s role in metabolic waste clearance. Urate transport is significant for kidney and liver function, linking ABCG2 to diseases like gout and renal dysfunction. (ABCG2 has in kidney tissue in GO analyzes)</t>
+  </si>
+  <si>
+    <t>ABC transporter activity confirms its dominant role in cellular detoxification and stem cell defense.</t>
+  </si>
+  <si>
+    <r>
+      <t>vascular transport (GO:0010232) (p=9.44e-03);</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t xml:space="preserve"> transport across blood-brain barrier</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (GO:0150104) (p=9.44e-03); </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="5" tint="-0.499984740745262"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>organic substance transport</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (GO:0071702) (p=2.52e-02); </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>xenobiotic transport</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (GO:0042908) (p=3.44e-02); heme biosynthetic process (GO:0006783) (p=3.68e-02); porphyrin-containing compound biosynthetic process (GO:0006779) (p=3.85e-02)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>urate transmembrane transporter activity</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (GO:0015143) (p=1.75e-03); </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>riboflavin transmembrane transporter activity</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (GO:0032217) (p=1.75e-03);</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t xml:space="preserve"> ABC-type xenobiotic transporter activity</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (GO:0008559) (p=2.57e-03);</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="5" tint="-0.499984740745262"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>anion transmembrane transporter activity</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (GO:0008509) (p=2.97e-03); </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>monocarboxylic acid transmembrane transporter activity</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (GO:0008028) (p=3.92e-03);</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="5" tint="-0.499984740745262"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="5" tint="-0.499984740745262"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>organic anion transmembrane transporter activity</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (GO:0008514) (p=1.67e-02)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>xenobiotic transport across blood-brain barrier</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (GO:1990962) (p=7.23e-03); urate metabolic process (GO:0046415) (p=7.23e-03); heme catabolic process (GO:0042167) (p=7.23e-03); transepithelial transport (GO:0070633) (p=7.23e-03); porphyrin-containing compound catabolic process (GO:0006787) (p=7.23e-03); </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>xenobiotic transport</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (GO:0042908) (p=7.23e-03); heme biosynthetic process (GO:0006783) (p=7.23e-03); porphyrin-containing compound biosynthetic process (GO:0006779) (p=7.23e-03); sulfur compound transport (GO:0072348) (p=7.23e-03); amide transport (GO:0042886) (p=7.23e-03); vitamin transport (GO:0051180) (p=7.30e-03); </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="5" tint="-0.499984740745262"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t xml:space="preserve">anion transport </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">(GO:0006820) (p=8.88e-03); monocarboxylic acid transport (GO:0015718) (p=9.14e-03); cellular iron ion homeostasis (GO:0006879) (p=9.14e-03); iron ion homeostasis (GO:0055072) (p=9.14e-03); vascular transport (GO:0010232) (p=1.11e-02); </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>transport across blood-brain barrier</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (GO:0150104) (p=1.11e-02); cellular transition metal ion homeostasis (GO:0046916) (p=1.15e-02);</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="5" tint="-0.499984740745262"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t xml:space="preserve"> organic anion transport</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (GO:0015711) (p=1.15e-02); organic acid transport (GO:0015849) (p=1.15e-02); organic substance transport (GO:0071702) (p=1.42e-02); nitrogen compound transport (GO:0071705) (p=1.42e-02)</t>
+    </r>
+  </si>
+  <si>
+    <t>Organic substance transport links ABCG2 to pharmacokinetics and drug detoxification. Transport across blood-brain barrier and Organic anion transmembrane transport confirms ABCG2’s role in drug/metabolite transport in tissues.</t>
+  </si>
+  <si>
+    <t>If ABCG2 is confined within a strong TAD boundary, its regulation is highly independent from other genes outside this domain. This means even if other transport-related genes are active, ABCG2’s expression remains isolated, leading to poor correlation with global expression trends. ABCG2 may be upregulated in specialized cells or tissues (e.g., endothelial cells of the blood-brain barrier, certain immune or stem cells), but not in bulk tissue samples. If the genes it interacts with are not highly expressed in the same tissues, the overall correlation drops.</t>
+  </si>
+  <si>
+    <t>Medium expr</t>
+  </si>
+  <si>
+    <t>0.9423 (very good correlated )</t>
+  </si>
+  <si>
+    <t>lung</t>
+  </si>
+  <si>
+    <t>ADAMTSL2 is known to interact with fibrillin-1 and contribute to ECM stability. ECM genes tend to be tightly regulated, meaning their expression follows predictable patterns (which could explain the strong correlation in validation). ADAMTSL2 is expressed in lung &amp; spleen, both of which are rich in ECM components. In the lung, ECM remodeling is crucial for alveolar structure and elasticity. In the spleen, ECM-related proteins help regulate immune cell organization.If ADAMTSL2 is co-expressed with other lung/spleen-specific genes, this could make its expression highly predictable and biologically relevant. (In lung, there are 5 other genes)</t>
+  </si>
+  <si>
+    <t>0.7421 (quite good correlated gene)</t>
+  </si>
+  <si>
+    <t>AGER likely plays a role in regulating protein activity within lung cells, particularly in response to signals that activate MAPK pathways, which are involved in inflammation, cell growth, and differentiation. This could explain why AGER has a good correlation (0.7421) in validation – its expression is likely tied to these regulatory processes that are highly predictable and involved in maintaining lung health.</t>
+  </si>
+  <si>
+    <t>AGER appears involved in signaling pathways that respond to stress, including the MAPK pathway. MAPK signaling plays a central role in immune responses, inflammation, and cell survival during stress. AGER may play a role in activating cellular defense mechanisms during stressful conditions like inflammation or infection in lung tissues. The weak TAD boundary and low expression clustering suggest that AGER is not constitutively expressed but might be upregulated under specific conditions, making its expression more predictable during inflammatory or stress responses.</t>
+  </si>
+  <si>
+    <t>lung tissue, stress response pathways, and vascular transport—align with its stable expression and predictable behavior for STGCN model (via expression values for several time steps). Its role in critical signaling processes (like MAPK, NF-kappaB, and ERK cascades) contributes to its high correlation in validation, as these pathways are well-established in response to stress, injury, and inflammation in lung cells.</t>
+  </si>
+  <si>
+    <t>liver, kidney</t>
+  </si>
+  <si>
+    <t>negative 0.42 (worst predicted gene)</t>
+  </si>
+  <si>
+    <t>AMACR is involved in fatty acid beta-oxidation, particularly using acyl-CoA oxidase, an enzyme involved in the breakdown of long-chain fatty acids in peroxisomes. However, with low expression could be due to the fact that fatty acid metabolism may be more active under certain conditions (like fasting or high-fat diet), making expression more variable and difficult to predict.</t>
+  </si>
+  <si>
+    <t>As the AMACR gene is downregulated with weak TAD boundaries, it might be regulated more subtly by environmental factors or metabolic states, making its expression less predictable across conditions. This variability can explain why its correlation is negative or low.</t>
+  </si>
+  <si>
+    <t>Bile acids are crucial for digestion and absorption of fats, and a lack of AMACR can lead to metabolic disorders. The negative correlation might be explained if the model does not capture the exact conditions under which bile acid metabolism would normally vary.AMACR is involved in complex metabolic pathways such as fatty acid metabolism, bile acid biosynthesis, and steroid metabolism. These processes are highly context-dependent, meaning that AMACR's expression might be influenced by specific metabolic states (such as dietary changes, fasting, or specific disease states), which can cause its expression to be variable and unpredictable in your dataset. (The best reason for me)</t>
+  </si>
+  <si>
+    <t>very little info in WikiGenes for this gene</t>
+  </si>
+  <si>
+    <t>no info in WikiGenes for this gene</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">If AMACR expression is weak or downregulated under specific conditions, the biosynthesis of bile acids and steroids may be altered, which might be hard to capture consistently with STGCN. Hence, this could contribute to negative correlation. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>Very little info in WikiGenes for this gene</t>
+    </r>
+  </si>
+  <si>
+    <t>0.9004 (very good correlated gene)</t>
+  </si>
+  <si>
+    <t>follicular B-cells</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <b/>
@@ -731,7 +1575,245 @@
         <color rgb="FF00B050"/>
         <rFont val="Calibri (Body)"/>
       </rPr>
-      <t>Temporal regulation of drug transport → Indicates ABCA3's dynamic activity over time in handling xenobiotics. Xenobiotic transporter activity → Matches the efflux role WikiGenes describes.</t>
+      <t>regulation of apoptotic process</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (GO:0042981) (p=2.73e-02); </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>negative regulation of programmed cell death</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (GO:0043069) (p=4.41e-02); </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>positive regulation of B cell proliferation</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (GO:0030890) (p=4.41e-02)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>regulation of apoptotic process</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (GO:0042981) (p=4.79e-03); </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>negative regulation of programmed cell death</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (GO:0043069) (p=2.07e-02); </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>positive regulation of B cell proliferatio</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (GO:0030890) (p=2.07e-02); </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>negative regulation of apoptotic process</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (GO:0043066) (p=3.17e-02); </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>regulation of B cell proliferation</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (GO:0030888) (p=3.27e-02); </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t xml:space="preserve">positive regulation of B cell activation </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">(GO:0050871) (p=3.51e-02); </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t xml:space="preserve">positive regulation of lymphocyte proliferation </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(GO:0050671) (p=4.29e-02)</t>
+    </r>
+  </si>
+  <si>
+    <t>CD38 is critical for B-cell activation, proliferation, and immune function, particularly in follicular B cells (where it is highly expressed). This aligns with its function as an ADP-ribosyl cyclase, which modulates calcium signaling, an essential process for B cell responses. The strong correlation (0.9004) in validation suggests that CD38’s expression is tightly linked to the immune activation state, making it easier to model and predict.</t>
+  </si>
+  <si>
+    <t>CD38 is involved in the negative regulation of apoptosis, meaning it helps B cells survive and expand during immune responses. This is  important for follicular B cells, which undergo clonal expansion and selection during adaptive immunity. The upregulation of CD38 in time series dataset suggests an active immune state, preventing premature B cell death and promoting their function. The high correlation (0.9004) suggests this regulatory role is highly stable and predictable in follicular B cells.</t>
+  </si>
+  <si>
+    <t>0.7061 (medium correlated gene)</t>
+  </si>
+  <si>
+    <t>bone-marrow</t>
+  </si>
+  <si>
+    <t>positive regulation of DNA-dependent DNA replication (GO:2000105), negative regulation of cell division (GO:0051782),placenta development (GO:0001890),liver development (GO:0001889)</t>
+  </si>
+  <si>
+    <t>transcription cis-regulatory region binding (GO:0000976),DNA-binding transcription repressor activity, RNA polymerase II-specific (GO:0001227),double-stranded DNA binding (GO:0003690)</t>
+  </si>
+  <si>
+    <t>nucleolus (GO:0005730),intracellular non-membrane-bounded organelle (GO:0043232),nuclear lumen (GO:0031981)</t>
+  </si>
+  <si>
+    <t>negative regulation of cytokinesis (GO:0032466),hepatocyte differentiation (GO:0070365),positive regulation of DNA-dependent DNA replication (GO:2000105)</t>
+  </si>
+  <si>
+    <t>transcription cis-regulatory region binding (GO:0000976),sequence-specific DNA binding (GO:0043565),DNA-binding transcription repressor activity, RNA polymerase II-specific (GO:0001227)</t>
+  </si>
+  <si>
+    <t>negative regulation of cytokinesis (GO:0032466),trophoblast giant cell differentiation (GO:0060707),positive regulation of DNA-dependent DNA replication (GO:2000105),negative regulation of cell division (GO:0051782),placenta development (GO:0001890)</t>
+  </si>
+  <si>
+    <t>E2F8 is a known transcriptional repressor that helps regulate DNA replication and cell division. The fact that it is downregulated suggests a potential increase in cell cycle progression, as E2F8 typically acts as a brake on proliferation. This could be particularly relevant in the bone marrow, where hematopoietic stem and progenitor cells (HSPCs) must balance self-renewal and differentiation. If E2F8 is downregulated, it may indicate a shift from quiescence toward active proliferation and differentiation of blood cells. This could be linked to bone marrow’s role in hematopoiesis, where differentiation of progenitor cells is tightly regulated. (This is for bone-marrow and downregulation relation)</t>
+  </si>
+  <si>
+    <t>E2F8 is a nuclear transcription repressor, meaning it regulates genes involved in DNA replication, cytokinesis, and cell differentiation. Its downregulation suggests that genes normally repressed by E2F8 may become upregulated, potentially promoting differentiation or cell cycle activity.</t>
+  </si>
+  <si>
+    <t>0.5011 (medium correlated gene)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">liver, cornea, NK cells, </t>
     </r>
     <r>
       <rPr>
@@ -740,24 +1822,268 @@
         <color theme="9" tint="-0.249977111117893"/>
         <rFont val="Calibri (Body)"/>
       </rPr>
+      <t>embryonic stem line Bruce4 p13</t>
+    </r>
+  </si>
+  <si>
+    <t>Regulation of epithelial cell proliferation (GO:0050678) → EGFR is critical for craniofacial development via epithelial growth. Regulation of protein phosphorylation (GO:0001932) → EGFR controls signaling cascades required for facial tissue differentiation. EGFR signaling is essential for embryonic tissue development, particularly in epithelial and craniofacial morphogenesis. Disruptions can lead to cleft palate and jaw defects. Epidermal growth factor receptor signaling pathway (GO:0007173) → EGFR controls keratinocyte growth &amp; wound healing. Cellular response to growth factor stimulus (GO:0071363) → EGFR responds to external growth signals, affecting skin thickness &amp; repair. EGFR is crucial for skin renewal and response to UV damage, influencing hyperplasia &amp; wound healing.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>regulation of protein phosphorylation</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (GO:0001932) (p=3.53e-02); </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t xml:space="preserve">positive regulation of protein </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="5" tint="-0.499984740745262"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>kinase</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t xml:space="preserve"> B signaling</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (GO:0051897) (p=3.86e-02)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>regulation of protein phosphorylation</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (GO:0001932) (p=2.01e-04); </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>positive regulation of phosphorylation</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (GO:0042327) (p=1.05e-03); </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>positive regulation of protein modification process</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (GO:0031401) (p=3.60e-03); </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t xml:space="preserve">regulation of stress-activated </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>MAPK cascade</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (GO:0032872) (p=2.52e-02); positive regulation of protein phosphorylation (GO:0001934) (p=2.52e-02); regulation of ERK1 and ERK2 cascade (GO:0070372) (p=2.52e-02); positive regulation of production of miRNAs involved in gene silencing by miRNA (GO:1903800) (p=2.52e-02); </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>regulation of apoptotic process</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="5" tint="-0.499984740745262"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
       <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">(GO:0042981) (p=2.73e-02); </t>
+    </r>
+    <r>
+      <rPr>
         <b/>
         <sz val="11"/>
         <color rgb="FF00B050"/>
         <rFont val="Calibri (Body)"/>
       </rPr>
-      <t>The fact that ABCA3 is associated with drug transport in go terms confirms it may help cells cope with toxic environments. Higher expression of ABCA3 in specific conditions, it could suggest an adaptive response to drug exposure or stress.</t>
-    </r>
-  </si>
-  <si>
-    <t>color meaning high impact information from wikigenes</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">ABCA3 and </t>
+      <t>positive regulation of MAP kinase activity</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (GO:0043406) (p=2.94e-02); </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>positive regulation of protein kinase B signaling</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (GO:0051897) (p=2.94e-02); regulation of production of miRNAs involved in gene silencing by miRNA (GO:1903798) (p=3.28e-02); positive regulation of gene expression (GO:0010628) (p=3.44e-02); regulation of peptidyl-tyrosine phosphorylation (GO:0050730) (p=3.85e-02); </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>regulation of epithelial cell proliferation</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (GO:0050678) (p=3.85e-02); positive regulation of peptidyl-serine phosphorylation (GO:0033138) (p=3.85e-02); </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>regulation of protein kinase B signaling</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (GO:0051896) (p=3.90e-02);</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="5" tint="-0.499984740745262"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
@@ -766,26 +2092,1732 @@
         <color rgb="FF00B050"/>
         <rFont val="Calibri (Body)"/>
       </rPr>
-      <t>ABCG2 (co-regulated genes and in out dataset ABCG2 is also appear)</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
+      <t>regulation of MAP kinase activity</t>
+    </r>
+    <r>
+      <rPr>
         <sz val="11"/>
         <color rgb="FF00B050"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> work together to help cells expel cytotoxic drugs.  Both transporters are part of the multidrug resistance (MDR) system, protecting against toxins and oxidative stress. ABCG2 gene is upregulated but ABCA3 is a stable gene in terms of temporally so there can be sequential activation in drug resistance pathways.</t>
-    </r>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">(GO:0043405) (p=3.90e-02); regulation of peptidyl-serine phosphorylation (GO:0033135) (p=3.91e-02); positive regulation of gene silencing by miRNA (GO:2000637) (p=4.23e-02); </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t xml:space="preserve">positive regulation of intracellular signal transduction </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(GO:1902533) (p=4.32e-02);</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>positive regulation of protein serine/threonine kinase activity</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="5" tint="-0.499984740745262"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(GO:0071902) (p=4.41e-02); negative regulation of programmed cell death (GO:0043069) (p=4.41e-02); regulation of cell migration (GO:0030334) (p=4.90e-02)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t xml:space="preserve">regulation of </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>apoptotic</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t xml:space="preserve"> process</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (GO:0042981) (p=4.79e-03);</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>regulation of protein phosphorylation</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (GO:0001932) (p=7.90e-03); </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>negative regulation of programmed cell death</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (GO:0043069) (p=2.07e-02); </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>negative regulation of</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="5" tint="-0.499984740745262"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>apoptotic</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t xml:space="preserve"> process</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (GO:0043066) (p=3.17e-02); membrane organization (GO:0061024) (p=3.51e-02); </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>positive regulation of phosphorylation</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (GO:0042327) (p=3.55e-02); </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>regulation of peptidyl-tyrosine phosphorylation</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (GO:0050730) (p=4.29e-02); </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>positive regulation of peptidyl-serine phosphorylation</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (GO:0033138) (p=4.29e-02); </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>regulation of kinase activity</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (GO:0043549) (p=4.29e-02); regulation of peptidyl-serine phosphorylation (GO:0033135) (p=4.29e-02); </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>positive regulation of kinase activity</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="5" tint="-0.499984740745262"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">(GO:0033674) (p=4.29e-02); </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t xml:space="preserve">positive regulation of protein kinase C activity </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">(GO:1900020) (p=4.29e-02); </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>regulation of protein kinase C activity</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (GO:1900019) (p=4.29e-02); </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>regulation of nitric oxide mediated signal transduction</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (GO:0010749) (p=4.82e-02); </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t xml:space="preserve">enzyme linked receptor protein </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>signaling pathway</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (GO:0007167) (p=4.83e-02); negative regulation of cardiocyte differentiation (GO:1905208) (p=4.83e-02); positive regulation of transferase activity (GO:0051347) (p=4.89e-02); positive regulation of gene expression (GO:0010628) (p=4.89e-02)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>transmembrane receptor protein kinase activity</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (GO:0019199) (p=1.42e-02); </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>transmembrane receptor protein tyrosine kinase</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> activity (GO:0004714) (p=1.42e-02); </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>protein tyrosine kinase activity</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="5" tint="-0.499984740745262"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">(GO:0004713) (p=3.14e-02); </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>MAP kinase kinase kinase activity</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (GO:0004709) (p=4.37e-02)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>transmembrane receptor protein kinase activity</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (GO:0019199) (p=3.18e-02); </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>transmembrane receptor protein tyrosine kinase activity</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (GO:0004714) (p=3.18e-02); </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>protein tyrosine kinase activity</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (GO:0004713) (p=3.66e-02)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">regulation of protein phosphorylation (GO:0001932) (p=2.38e-03); positive regulation of phosphorylation (GO:0042327) (p=1.59e-02); positive regulation of production of miRNAs involved in gene silencing by miRNA (GO:1903800) (p=2.10e-02); positive regulation of protein modification process (GO:0031401) (p=2.10e-02); regulation of production of miRNAs involved in gene silencing by miRNA (GO:1903798) (p=2.10e-02); </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>regulation of peptidyl-tyrosine phosphorylatio</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (GO:0050730) (p=2.10e-02); </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>positive regulation of peptidyl-serine phosphorylation</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">GO:0033138) (p=2.10e-02); </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>regulation of peptidyl-serine phosphorylation</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">(GO:0033135) (p=2.22e-02); regulation of ERK1 and ERK2 cascade (GO:0070372) (p=2.22e-02); positive regulation of gene silencing by miRNA (GO:2000637) (p=3.00e-02); positive regulation of gene expression (GO:0010628) (p=3.14e-02); </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>positive regulation of intracellular signal transduction</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (GO:1902533) (p=3.76e-02); response to estradiol (GO:0032355) (p=3.76e-02); positive regulation of transferase activity (GO:0051347) (p=3.76e-02); </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t xml:space="preserve">cellular response to </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="5" tint="-0.499984740745262"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>growth factor</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t xml:space="preserve"> stimulus</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (GO:0071363) (p=4.24e-02); </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>positive regulation of protein kinase B signaling</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (GO:0051897) (p=4.24e-02); positive regulation of RNA metabolic process (GO:0051254) (p=4.33e-02); </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t xml:space="preserve">epidermal </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>growth factor</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t xml:space="preserve"> receptor</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="5" tint="-0.499984740745262"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>signaling pathway</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (GO:0007173) (p=4.33e-02); positive regulation of ERK1 and ERK2 cascade (GO:0070374) (p=4.33e-02); </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>positive regulation of protein phosphorylatio</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="5" tint="-0.499984740745262"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (GO:0001934) (p=4.45e-02);</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>regulation of stress-activated MAPK cascade</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="5" tint="-0.499984740745262"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">(GO:0032872) (p=4.45e-02); negative regulation of programmed cell death (GO:0043069) (p=4.74e-02); </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>positive regulation of NIK/NF-kappaB signaling</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (GO:1901224) (p=4.74e-02)</t>
+    </r>
+  </si>
+  <si>
+    <t>EGFR is known for activating various intracellular signaling cascades, notably the MAPK (Mitogen-Activated Protein Kinase) pathway. The activation of this pathway can lead to numerous cellular responses, including cell proliferation, survival, and differentiation. This is consistent with the information from WikiGenes where the activation of EGFR involves receptor dimerization, leading to kinase domain activation and MAPK cascade initiation. The stress-activated MAPK cascade also connects EGFR to cellular responses under stress, like DNA damage, inflammation, and oxidative stress. The kinase activities mentioned also correlate with EGFR's role as a receptor protein kinase that phosphorylates tyrosines and serines, which in turn regulate downstream signaling. EGFR's signaling pathway plays a crucial role in regulating apoptosis (programmed cell death). It can inhibit apoptosis by activating prosurvival pathways such as the PI3K/Akt pathway and MAPK/ERK pathway. This aligns with the information from WikiGenes suggesting that the EGFR pathway can influence cell survival in response to external stimuli. EGFR-mediated signaling can also promote cell proliferation and inhibit apoptosis, which is relevant for tumor progression in various cancers. As a receptor tyrosine kinase, EGFR plays a key role in the tyrosine phosphorylation of proteins upon ligand binding (e.g., EGF, TGF-alpha), which activates downstream signaling pathways. The tyrosine kinase activity is essential for initiating signaling cascades that regulate key cellular processes such as proliferation and survival. This matches well with the high-impact information from WikiGenes that explains the importance of EGFR dimerization and its activation by phosphorylation at the tyrosine residues in its kinase domain. EGFR is a key receptor for growth factors like EGF, and its activation by these factors leads to cellular responses such as growth, survival, and differentiation.</t>
+  </si>
+  <si>
+    <t>EGFR is involved in multiple signaling pathways (e.g., MAPK, PI3K-AKT, NF-kB, apoptosis regulation) and interacts with many regulators, inhibitors, and co-factors. This complexity can make it difficult to predict its expression with high accuracy. The gene is known to have variable expression across tissues (liver, cornea, NK cells, embryonic stem line Bruce4 p13), and regulatory elements might act differently in each tissue.</t>
+  </si>
+  <si>
+    <t>0.7525 (good correlated gene)</t>
+  </si>
+  <si>
+    <t>hippocampus</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">transmembrane receptor protein kinase activity (GO:0019199) (p=1.42e-02); transmembrane receptor protein tyrosine kinase activity (GO:0004714) (p=1.42e-02); protein tyrosine kinase activity (GO:0004713) (p=3.14e-02); </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>GPI-linked ephrin receptor activity</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (GO:0005004) (p=3.14e-02); </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>transmembrane-ephrin receptor activity</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (GO:0005005) (p=4.37e-02); </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>ephrin receptor activity</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (GO:0005003) (p=4.37e-02)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">transmembrane receptor protein kinase activity (GO:0019199) (p=3.18e-02); transmembrane receptor protein tyrosine kinase activity (GO:0004714) (p=3.18e-02); </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>GPI-linked ephrin receptor activity</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (GO:0005004) (p=3.66e-02); protein tyrosine kinase activity (GO:0004713) (p=3.66e-02)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">regulation of protein phosphorylation (GO:0001932) (p=7.90e-03); positive regulation of phosphorylation (GO:0042327) (p=3.55e-02); </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>positive regulation of apoptotic process</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (GO:0043065) (p=4.29e-02); regulation of peptidyl-tyrosine phosphorylation (GO:0050730) (p=4.29e-02); regulation of kinase activity (GO:0043549) (p=4.29e-02); positive regulation of kinase activity (GO:0033674) (p=4.29e-02);</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t xml:space="preserve"> enzyme linked receptor protein signaling pathway</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (GO:0007167) (p=4.83e-02); positive regulation of transferase activity (GO:0051347) (p=4.89e-02)</t>
+    </r>
+  </si>
+  <si>
+    <t>EPHA7 functions both as a transmembrane receptor and as a GPI-linked receptor, meaning it can act in both cell-cell signaling and soluble ligand-receptor interactions (important for developmental cues). EPHA7 likely participates in cell fate decisions, ensuring proper tissue patterning by guiding cell migration, adhesion, and apoptosis. It may influence frontal neocortex and mesencephalon (midbrain) development through ephrin-mediated signaling cascades.</t>
+  </si>
+  <si>
+    <t>EPHA7 is expressed in the hippocampus, a key brain region for memory and learning. GO terms like “regulation of ERK1 and ERK2 cascade” suggest EPHA7 influences MAPK/ERK signaling, which is critical for neuronal differentiation and survival. EPHA7's function in neural development may explain its strong correlation with experimental validation, particularly in hippocampus-relavance.</t>
+  </si>
+  <si>
+    <t>EPHA7 acts as a core regulatory node, ensuring that intracellular signaling pathways respond accurately to external stimuli. This stability in signaling networks could contribute to higher correlation values in validation.</t>
+  </si>
+  <si>
+    <t>no tissue type</t>
+  </si>
+  <si>
+    <t>0.9682 (best correlated second gene)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>keratin filament binding</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (GO:1990254) (p=3.72e-02)</t>
+    </r>
+  </si>
+  <si>
+    <t>Since VIM knockout mice develop without an obvious phenotype, this keratin-vimentin interaction might suggest a compensatory mechanism where keratins help maintain cytoskeletal integrity when vimentin is absent. The keratin filament binding property of VIM suggests that vimentin plays a structural and regulatory role in cytoskeletal dynamics, especially during EMT, stress responses, and compensatory mechanisms in cells. This could explain its high expression and strong correlation with other predicted genes, as it interacts with multiple pathways governing cell motility, differentiation, and resilience.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="5" tint="-0.499984740745262"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>positive regulation of collagen biosynthetic process</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (GO:0032967) (p=2.94e-02); </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="5" tint="-0.499984740745262"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>positive regulation of collagen metabolic process</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (GO:0010714) (p=3.16e-02); </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="5" tint="-0.499984740745262"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t xml:space="preserve">regulation of collagen biosynthetic process </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">(GO:0032965) (p=3.44e-02); </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="5" tint="-0.499984740745262"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t xml:space="preserve">positive regulation of gene expression </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(GO:0010628) (p=3.44e-02)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="5" tint="-0.499984740745262"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t xml:space="preserve">positive regulation of collagen biosynthetic process </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">(GO:0032967) (p=2.89e-02); </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="5" tint="-0.499984740745262"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>positive regulation of collagen metabolic process</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (GO:0010714) (p=2.89e-02); </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="5" tint="-0.499984740745262"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>regulation of collagen biosynthetic process</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (GO:0032965) (p=2.89e-02)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="5" tint="-0.499984740745262"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>positive regulation of collagen biosynthetic process</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (GO:0032967) (p=2.10e-02); </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="5" tint="-0.499984740745262"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>positive regulation of collagen metabolic process</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (GO:0010714) (p=2.10e-02); </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="5" tint="-0.499984740745262"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>regulation of collagen biosynthetic process</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (GO:0032965) (p=2.10e-02); </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="5" tint="-0.499984740745262"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>positive regulation of gene expression</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (GO:0010628) (p=3.14e-02); </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="5" tint="-0.499984740745262"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t xml:space="preserve">positive regulation of biosynthetic process </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(GO:0009891) (p=4.31e-02)</t>
+    </r>
+  </si>
+  <si>
+    <t>Vimentin's role in maintaining the cytoskeleton and facilitating interactions with collagen places it in a key position to be involved in cellular structure and extracellular matrix dynamics. These roles are likely well-predicted due to its consistent expression and function across various tissues involved in tissue remodeling and cellular repair.</t>
+  </si>
+  <si>
+    <t>Vimentin’s strong association with collagen biosynthesis suggests its importance in cell adhesion, migration, and proliferation, all of which are crucial during wound healing or tissue regeneration. Predicting these interactions is highly relevant in biological models where tissue integrity and collagen turnover are central.</t>
+  </si>
+  <si>
+    <t>AB (both compartments)</t>
+  </si>
+  <si>
+    <t>no tad boundary</t>
+  </si>
+  <si>
+    <t>lung, kidney, osteoclasts</t>
+  </si>
+  <si>
+    <t>0.9509 (very good correlated gene)</t>
+  </si>
+  <si>
+    <t>amine metabolic process (GO:0009308)</t>
+  </si>
+  <si>
+    <t>N-methyltransferase activity (GO:0008170),S-adenosylmethionine-dependent methyltransferase activity (GO:0008757), methyltransferase activity (GO:0008168)</t>
+  </si>
+  <si>
+    <t>Despite being a low-expression gene, INMT plays a crucial role in core biochemical processes like amine metabolism and methylation, which are essential for maintaining tissue integrity and homeostasis. This consistent involvement in fundamental metabolic processes likely explains the strong prediction correlation.</t>
+  </si>
+  <si>
+    <t>INMT’s involvement in amine metabolism, methylation, and gene regulation in key tissues like the lung, kidney, and osteoclasts makes it a central player in maintaining cellular homeostasis and metabolic function, explaining both its stable expression and the good correlation observed in the predictions.</t>
+  </si>
+  <si>
+    <t>Hist1h1b</t>
+  </si>
+  <si>
+    <t>no specific tissue</t>
+  </si>
+  <si>
+    <t>0.9734 (best correlated gene)</t>
+  </si>
+  <si>
+    <t>The high correlation of Hist1h1b can be attributed to its essential role in chromatin structure regulation, gene expression modulation, and cell differentiation, all of which are tightly regulated processes across various cell types. The gene's involvement in transcriptional regulation, methylation of histones, and interaction with transcription factors like Msx1 helps explain its stable expression and the strong predictive value observed for this gene</t>
+  </si>
+  <si>
+    <t>P-63</t>
+  </si>
+  <si>
+    <t>The biological reason for the strong correlation likely comes from P63's central role in regulating epithelial morphogenesis, its importance in cellular integrity, and its contributions to developmental and disease-related processes, making it a critical gene for prediction models analyzing similar biological processes.</t>
+  </si>
+  <si>
+    <t>Common biological feature explanation for first five best correlated genes:  The common biological feature between these genes is their involvement in maintaining cellular structure and integrity, regulating gene expression, and supporting tissue development, repair, and differentiation. Their roles in compensatory mechanisms, structural stability, and metabolic regulation contribute to their strong predictive value, as these processes are highly conserved and tightly regulated in various tissues across the organism.</t>
+  </si>
+  <si>
+    <t>sHISA3</t>
+  </si>
+  <si>
+    <t>microglia</t>
+  </si>
+  <si>
+    <t>0.1415 (bad correlated gene)</t>
+  </si>
+  <si>
+    <t>intracellular membrane-bounded organelle (GO:0043231)</t>
+  </si>
+  <si>
+    <t>PGD2 is important in the central nervous system (CNS) and is produced by microglia, which are immune cells in the brain. It plays a role in sleep regulation, neuroprotection, and neuroinflammation.Since HPGDS is downregulated, it may imply a weaker neuroinflammatory response, potentially affecting microglial activation, neuroprotection, or brain homeostasis.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t xml:space="preserve">prostaglandin metabolic process </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">(GO:0006693), </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>glutathione metabolic process</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (GO:0006749)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>magnesium ion binding</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (GO:0000287) (p=4.78e-02)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>metal ion binding</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (GO:0046872), </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>magnesium ion binding</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (GO:0000287),</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>glutathione transferase activity</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (GO:0004364)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>metal ion binding</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (GO:0046872),</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>magnesium ion binding</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (GO:0000287), </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>glutathione transferase activity</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (GO:0004364)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>cyclooxygenase pathway (GO:0019371),</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>prostanoid metabolic process</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (GO:0006692), </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>prostaglandin biosynthetic process</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (GO:0001516)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>cyclooxygenase pathway (GO:0019371)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t xml:space="preserve">prostanoid metabolic process </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(GO:0006692)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">HPGDS is a key enzyme in the biosynthesis of PGD₂, a lipid mediator involved in inflammation, sleep regulation, and immune signaling. HPGDS is highly tissue-specific → It is mainly expressed in microglia and certain immune cells, making it harder to predict in broader datasets. Enzyme activity depends on multiple factors → Availability of Mg²⁺, glutathione levels, and inflammatory conditions can all influence HPGDS expression. Dynamic expression patterns → Unlike structural or housekeeping genes, HPGDS expression is transient, responding to inflammation or oxidative stress rather than maintaining stable expression.                                                                                                   </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF92D050"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>HPGDS is a redox-sensitive, metal-dependent enzyme involved in prostaglandin metabolism and immune regulation. Its low predictability might stem from its highly dynamic expression and dependence on tissue-specific factors like Mg²⁺ and glutathione availability.</t>
+    </r>
+  </si>
+  <si>
+    <t>intestine small</t>
+  </si>
+  <si>
+    <t>0.1937 (bad correlated gene)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>metalloendopeptidase activity</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (GO:0004222), endopeptidase activity (GO:0004175)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>positive regulation of cell motility</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (GO:2000147), membrane protein intracellular domain proteolysis (GO:0031293)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">membrane protein intracellular domain proteolysis (GO:0031293) (p=3.68e-02); </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>regulation of cell migration</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (GO:0030334) (p=4.90e-02)</t>
+    </r>
+  </si>
+  <si>
+    <t>MMP7’s poor predictability likely arises because it is an inducible, tissue-specific, and dynamically regulated gene, making it difficult to fit into general expression models. However, its key roles in ECM degradation, cell motility, and proteolysis highlight its importance in tissue remodeling, cancer progression, and immune responses.</t>
+  </si>
+  <si>
+    <t>Unlike genes with clear GO terms in collagen biosynthesis (e.g., VIM) or methylation (e.g., INMT), MMP7 acts in membrane protein cleavage, ECM remodeling, and inflammation. These processes are context-dependent and may not follow a single regulatory pattern. MMP7 is regulated by hormones (e.g., progesterone, Ihh signaling) and inflammatory signals.If these external factors vary between conditions, MMP7 expression may not correlate well with other genes in the dataset.</t>
+  </si>
+  <si>
+    <t>N-glycan processing (GO:0006491), cellular protein modification process (GO:0006464),glycoprotein metabolic process (GO:0009100)</t>
+  </si>
+  <si>
+    <t>acetylglucosaminyltransferase activity (GO:0008375), UDP-glycosyltransferase activity (GO:0008194),hexosyltransferase activity (GO:0016758)</t>
+  </si>
+  <si>
+    <t>glycoprotein metabolic process (GO:0009100), protein N-linked glycosylation (GO:0006487)</t>
+  </si>
+  <si>
+    <t>intracellular organelle lumen (GO:0070013),endoplasmic reticulum lumen (GO:0005788), Golgi stack (GO:0005795)</t>
+  </si>
+  <si>
+    <t>cellular protein metabolic process (GO:0044267), N-glycan processing (GO:0006491)</t>
+  </si>
+  <si>
+    <t>acetylglucosaminyltransferase activity (GO:0008375), UDP-glycosyltransferase activity (GO:0008194), hexosyltransferase activity (GO:0016758)</t>
+  </si>
+  <si>
+    <t>placenta, salivary grand</t>
+  </si>
+  <si>
+    <t>N-glycan processing (GO:0006491), post-translational protein modification (GO:0043687), cellular protein metabolic process (GO:0044267)</t>
+  </si>
+  <si>
+    <t>acetylglucosaminyltransferase activity (GO:0008375),UDP-glycosyltransferase activity (GO:0008194),hexosyltransferase activity (GO:0016758)</t>
+  </si>
+  <si>
+    <t>0.2948 (bad correlated gene)</t>
+  </si>
+  <si>
+    <t>MGAT4A is mostly expressed in placenta and salivary glands, which are specialized secretory tissues.Its function may not be universally required across all tissues, leading to inconsistent correlation. A-compartment genes are usually active, but MGAT4A is downregulated.This suggests that chromatin environment alone is not enough to drive its expression, leading to unpredictable behavior.</t>
+  </si>
+  <si>
+    <t>highly tissue-specific, dynamic, and context-dependent regulation. These genes are involved in metabolic processes, transport, inflammation, or extracellular matrix remodeling—all of which are influenced by external factors, signaling pathways, or specific cellular environments. HPGDS (Microglia), ABCG2 (Kidney, BBB), MGAT4A (Placenta, Salivary Glands), AMACR (Liver, Peroxisomes), MMP7 (Intestine, Tumor Microenvironments). These genes are not broadly expressed but are crucial in specific organs, cell types, or metabolic niches.If their primary tissues are underrepresented in the dataset, or if their expression is highly localized, this limits their correlation with other genes. Their activity is often triggered by specific stimuli (e.g., hormones, dietary changes, inflammation, oxidative stress, extracellular signals).This makes their expression highly fluctuating rather than constitutively stable, leading to weaker correlations across datasets where those stimuli are not uniformly present.Their expression levels are often influenced by substrate availability (fatty acids, bile acids, glutathione, magnesium, xenobiotics, glycosylation substrates, ECM components, inflammatory mediators).If these substrates are not consistently present across conditions, the expression of these genes will vary unpredictably.</t>
+  </si>
+  <si>
+    <t>Best vs worst predicted genes general thoughts</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -822,12 +3854,64 @@
       <name val="Calibri (Body)"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF00B050"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri (Body)"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="5" tint="-0.499984740745262"/>
+      <name val="Calibri (Body)"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="5" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3" tint="0.39997558519241921"/>
+      <name val="Calibri (Body)"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3" tint="0.39997558519241921"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri (Body)"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF92D050"/>
+      <name val="Calibri (Body)"/>
     </font>
   </fonts>
   <fills count="4">
@@ -890,7 +3974,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -901,17 +3985,14 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -919,20 +4000,74 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -949,6 +4084,996 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>165100</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>419100</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Graphic 2" descr="Badge Tick1 with solid fill">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F46F62E7-49A0-B9D1-F735-3B97560D3920}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="165100" y="1587500"/>
+          <a:ext cx="254000" cy="254000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>292100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>4013200</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>3327400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{196998B2-2AB3-D76E-CBF1-A5CB763BDA02}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="91478100" y="4762500"/>
+          <a:ext cx="5727700" cy="3035300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>1803400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>977900</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>1803400</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="6" name="Straight Arrow Connector 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E6388C81-4113-1584-8D06-4EEB749998EB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="75285600" y="6273800"/>
+          <a:ext cx="787400" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>177800</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>431800</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>419100</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Graphic 6" descr="Badge Tick1 with solid fill">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3CB262AC-49D5-E549-A01C-01370CBC478C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="177800" y="4635500"/>
+          <a:ext cx="254000" cy="254000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>165100</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>419100</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Graphic 7" descr="Badge Tick1 with solid fill">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E4F31E61-CC4B-A34B-A437-42FC2D6DAAED}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="165100" y="8496300"/>
+          <a:ext cx="254000" cy="254000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>139700</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>393700</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>431800</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Graphic 8" descr="Badge Tick1 with solid fill">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9D9B6714-30E8-F84C-8E2B-84D902452211}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="139700" y="13716000"/>
+          <a:ext cx="254000" cy="254000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>215900</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>469900</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>419100</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Graphic 9" descr="Badge Tick1 with solid fill">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{33C36EB1-9444-1146-B546-5589C57B9D8D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="215900" y="17221200"/>
+          <a:ext cx="254000" cy="254000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>177800</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>431800</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>406400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Graphic 10" descr="Badge Tick1 with solid fill">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{65A41B93-2424-D04A-BC3B-2522F4C3E371}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="177800" y="22415500"/>
+          <a:ext cx="254000" cy="254000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>203200</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>419100</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="Graphic 11" descr="Badge Tick1 with solid fill">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F20A32B3-2FC5-5143-8F1D-B3912736109C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="203200" y="25273000"/>
+          <a:ext cx="254000" cy="254000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>203200</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>393700</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="Graphic 12" descr="Badge Tick1 with solid fill">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D2D486E4-26D5-304F-9BE0-F4C66F2501A0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="203200" y="28587700"/>
+          <a:ext cx="254000" cy="254000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>203200</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>419100</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="Graphic 13" descr="Badge Tick1 with solid fill">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C0B18CD4-B45B-2346-88B5-665742FE2397}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="203200" y="30759400"/>
+          <a:ext cx="254000" cy="254000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>165100</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>419100</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="Graphic 14" descr="Badge Tick1 with solid fill">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C8EA9EDF-D00D-9D4A-9005-ED806D65AF4C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="165100" y="35966400"/>
+          <a:ext cx="254000" cy="254000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>444500</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>304800</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="Graphic 15" descr="Badge Tick1 with solid fill">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9C7D681F-1E44-0A45-B623-1DF43C926893}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="190500" y="88544400"/>
+          <a:ext cx="254000" cy="254000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>177800</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>431800</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>292100</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="Graphic 16" descr="Badge Tick1 with solid fill">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9AB145D6-66AE-AF45-9871-29DF3AF29890}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="177800" y="52641500"/>
+          <a:ext cx="254000" cy="254000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>165100</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>266700</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="Graphic 17" descr="Badge Tick1 with solid fill">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C37AF8E5-874F-8D48-885B-D66559740EEE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="165100" y="52616100"/>
+          <a:ext cx="254000" cy="254000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>444500</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>279400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="19" name="Graphic 18" descr="Badge Tick1 with solid fill">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FDAE3431-E276-EE40-8A53-FB0522851653}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="190500" y="56781700"/>
+          <a:ext cx="254000" cy="254000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>444500</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>266700</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="20" name="Graphic 19" descr="Badge Tick1 with solid fill">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D531D3E1-6055-8645-868D-E07EF869A0EA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="190500" y="47942500"/>
+          <a:ext cx="254000" cy="254000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>406400</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>279400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="21" name="Graphic 20" descr="Badge Tick1 with solid fill">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5A9375A7-B729-F74A-88AA-76B7B3CF7956}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="152400" y="70637400"/>
+          <a:ext cx="254000" cy="254000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>558800</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>1042647</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="22" name="Picture 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BF501397-B9A9-5B9E-E0EE-CFAF2F076472}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="99707700" y="8331200"/>
+          <a:ext cx="7315200" cy="6249647"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>52</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>1029845</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="23" name="Picture 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C25F8169-93F8-A5A7-24E1-5B7974E4D127}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="107403900" y="8343900"/>
+          <a:ext cx="6997700" cy="6224145"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1238,45 +5363,53 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AK35"/>
+  <dimension ref="A1:AK38"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="Y1" workbookViewId="0">
-      <selection activeCell="AC3" sqref="AC3"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="15.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14" customWidth="1"/>
     <col min="4" max="4" width="12.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="26.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="255.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="45.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="30.1640625" customWidth="1"/>
     <col min="9" max="9" width="52.6640625" customWidth="1"/>
     <col min="10" max="10" width="18" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="10.5" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="42.1640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="18.1640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="22" customWidth="1"/>
-    <col min="16" max="16" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="23.1640625" customWidth="1"/>
+    <col min="14" max="14" width="33.5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="40.6640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="51.83203125" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="11.83203125" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="56.6640625" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="25.83203125" customWidth="1"/>
+    <col min="20" max="20" width="28.5" customWidth="1"/>
+    <col min="21" max="21" width="16.33203125" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="25.33203125" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="15.83203125" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="81.1640625" bestFit="1" customWidth="1"/>
-    <col min="25" max="27" width="14.33203125" customWidth="1"/>
+    <col min="25" max="25" width="27.83203125" customWidth="1"/>
+    <col min="26" max="27" width="14.33203125" customWidth="1"/>
     <col min="28" max="28" width="38.1640625" customWidth="1"/>
-    <col min="29" max="29" width="28.5" customWidth="1"/>
-    <col min="30" max="30" width="15.6640625" customWidth="1"/>
+    <col min="29" max="29" width="62.83203125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="44.83203125" customWidth="1"/>
+    <col min="31" max="31" width="37.1640625" customWidth="1"/>
     <col min="32" max="32" width="16.33203125" customWidth="1"/>
     <col min="33" max="33" width="25" customWidth="1"/>
-    <col min="34" max="34" width="21" customWidth="1"/>
+    <col min="34" max="34" width="56.33203125" customWidth="1"/>
+    <col min="35" max="35" width="22.1640625" customWidth="1"/>
+    <col min="36" max="36" width="21.6640625" customWidth="1"/>
+    <col min="37" max="37" width="32.5" customWidth="1"/>
+    <col min="38" max="38" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" ht="64" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:37" ht="48" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>23</v>
       </c>
@@ -1290,7 +5423,7 @@
         <v>2</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>193</v>
+        <v>166</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>3</v>
@@ -1353,49 +5486,57 @@
         <v>22</v>
       </c>
       <c r="Z1" s="3" t="s">
-        <v>188</v>
+        <v>163</v>
       </c>
       <c r="AA1" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="AB1" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="AC1" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="AD1" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="AE1" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="AH1" s="13" t="s">
+        <v>165</v>
+      </c>
+      <c r="AI1" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="AJ1" s="14" t="s">
+        <v>175</v>
+      </c>
+      <c r="AK1" s="18" t="s">
         <v>184</v>
       </c>
-      <c r="AB1" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="AC1" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="AD1" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="AE1" s="1"/>
-      <c r="AF1" s="10" t="s">
-        <v>190</v>
-      </c>
-      <c r="AG1" s="14" t="s">
-        <v>196</v>
-      </c>
     </row>
-    <row r="2" spans="1:37" ht="240" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:37" ht="288" x14ac:dyDescent="0.2">
+      <c r="A2" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="26" t="s">
         <v>61</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="26" t="s">
         <v>63</v>
       </c>
-      <c r="E2" s="11" t="s">
-        <v>194</v>
+      <c r="E2" s="28" t="s">
+        <v>167</v>
       </c>
       <c r="F2" s="6" t="s">
         <v>65</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="H2" s="6"/>
       <c r="I2" s="6"/>
@@ -1404,72 +5545,78 @@
       <c r="L2" s="6"/>
       <c r="M2" s="6"/>
       <c r="N2" s="6" t="s">
-        <v>120</v>
+        <v>107</v>
       </c>
       <c r="O2" s="6" t="s">
-        <v>125</v>
+        <v>172</v>
       </c>
       <c r="P2" s="6"/>
       <c r="Q2" s="6"/>
       <c r="R2" s="6" t="s">
-        <v>191</v>
+        <v>173</v>
       </c>
       <c r="S2" s="6" t="s">
-        <v>192</v>
+        <v>174</v>
       </c>
       <c r="T2" s="6"/>
       <c r="U2" s="6"/>
       <c r="V2" s="6"/>
       <c r="W2" s="6"/>
       <c r="X2" s="6" t="s">
-        <v>167</v>
+        <v>145</v>
       </c>
       <c r="Y2" s="6"/>
       <c r="Z2" s="6" t="s">
-        <v>189</v>
+        <v>164</v>
       </c>
       <c r="AA2" s="6" t="s">
-        <v>185</v>
-      </c>
-      <c r="AB2" s="9" t="s">
-        <v>195</v>
-      </c>
-      <c r="AC2" s="13" t="s">
-        <v>197</v>
-      </c>
-      <c r="AD2" s="5"/>
-      <c r="AE2" s="1"/>
+        <v>160</v>
+      </c>
+      <c r="AB2" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="AC2" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="AD2" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="AE2" s="12" t="s">
+        <v>176</v>
+      </c>
       <c r="AF2" s="1"/>
-      <c r="AG2" s="8" t="s">
-        <v>186</v>
-      </c>
-      <c r="AH2" s="8" t="s">
-        <v>187</v>
-      </c>
-      <c r="AI2" s="8"/>
-      <c r="AJ2" s="8"/>
-      <c r="AK2" s="8"/>
+      <c r="AG2" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="AH2" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="AI2" s="7"/>
+      <c r="AJ2" s="7"/>
+      <c r="AK2" s="7"/>
     </row>
-    <row r="3" spans="1:37" ht="112" x14ac:dyDescent="0.2">
-      <c r="A3" s="4" t="s">
+    <row r="3" spans="1:37" ht="304" x14ac:dyDescent="0.2">
+      <c r="A3" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="26" t="s">
         <v>59</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="29" t="s">
         <v>63</v>
       </c>
-      <c r="E3" s="7"/>
+      <c r="E3" s="29" t="s">
+        <v>177</v>
+      </c>
       <c r="F3" s="6" t="s">
-        <v>66</v>
+        <v>179</v>
       </c>
       <c r="G3" s="6"/>
       <c r="H3" s="6" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="I3" s="6"/>
       <c r="J3" s="6"/>
@@ -1477,13 +5624,13 @@
       <c r="L3" s="6"/>
       <c r="M3" s="6"/>
       <c r="N3" s="6" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="O3" s="6" t="s">
-        <v>126</v>
+        <v>111</v>
       </c>
       <c r="P3" s="6" t="s">
-        <v>132</v>
+        <v>115</v>
       </c>
       <c r="Q3" s="6"/>
       <c r="R3" s="6"/>
@@ -1493,97 +5640,134 @@
       <c r="V3" s="6"/>
       <c r="W3" s="6"/>
       <c r="X3" s="6" t="s">
-        <v>168</v>
+        <v>182</v>
       </c>
       <c r="Y3" s="6"/>
       <c r="Z3" s="6"/>
-      <c r="AA3" s="6"/>
-      <c r="AB3" s="12"/>
-      <c r="AC3" s="1"/>
-      <c r="AD3" s="1"/>
-      <c r="AE3" s="1"/>
+      <c r="AA3" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="AB3" s="15" t="s">
+        <v>180</v>
+      </c>
+      <c r="AC3" s="16" t="s">
+        <v>181</v>
+      </c>
+      <c r="AD3" s="17" t="s">
+        <v>183</v>
+      </c>
+      <c r="AE3" s="19" t="s">
+        <v>185</v>
+      </c>
       <c r="AF3" s="1"/>
     </row>
     <row r="4" spans="1:37" ht="409.6" x14ac:dyDescent="0.2">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="26" t="s">
         <v>59</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="26" t="s">
         <v>61</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="26" t="s">
         <v>64</v>
       </c>
-      <c r="E4" s="7"/>
+      <c r="E4" s="26" t="s">
+        <v>177</v>
+      </c>
       <c r="F4" s="6" t="s">
-        <v>67</v>
+        <v>196</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>88</v>
+        <v>187</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>98</v>
+        <v>198</v>
       </c>
       <c r="J4" s="6" t="s">
-        <v>100</v>
+        <v>197</v>
       </c>
       <c r="K4" s="6" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="L4" s="6"/>
       <c r="M4" s="6"/>
       <c r="N4" s="6" t="s">
-        <v>122</v>
+        <v>188</v>
       </c>
       <c r="O4" s="6" t="s">
-        <v>127</v>
+        <v>191</v>
       </c>
       <c r="P4" s="6" t="s">
-        <v>133</v>
+        <v>116</v>
       </c>
       <c r="Q4" s="6" t="s">
-        <v>139</v>
+        <v>192</v>
       </c>
       <c r="R4" s="6"/>
       <c r="S4" s="6"/>
       <c r="T4" s="6"/>
       <c r="U4" s="6"/>
       <c r="V4" s="6" t="s">
-        <v>158</v>
+        <v>189</v>
       </c>
       <c r="W4" s="6" t="s">
-        <v>163</v>
+        <v>190</v>
       </c>
       <c r="X4" s="6"/>
       <c r="Y4" s="6"/>
-      <c r="Z4" s="6"/>
-      <c r="AA4" s="6"/>
-      <c r="AB4" s="6"/>
-      <c r="AC4" s="1"/>
-      <c r="AD4" s="1"/>
-      <c r="AE4" s="1"/>
+      <c r="Z4" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="AA4" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="AB4" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="AC4" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="AD4" s="12" t="s">
+        <v>199</v>
+      </c>
+      <c r="AE4" s="19" t="s">
+        <v>200</v>
+      </c>
       <c r="AF4" s="1"/>
+      <c r="AG4" s="31" t="s">
+        <v>275</v>
+      </c>
+      <c r="AH4" s="31" t="s">
+        <v>306</v>
+      </c>
+      <c r="AI4" s="21" t="s">
+        <v>307</v>
+      </c>
     </row>
-    <row r="5" spans="1:37" ht="32" x14ac:dyDescent="0.2">
-      <c r="A5" s="4" t="s">
+    <row r="5" spans="1:37" ht="277" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="26" t="s">
         <v>59</v>
       </c>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7" t="s">
+      <c r="C5" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="D5" s="26" t="s">
         <v>63</v>
       </c>
-      <c r="E5" s="7"/>
+      <c r="E5" s="26" t="s">
+        <v>201</v>
+      </c>
       <c r="F5" s="6" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
@@ -1603,31 +5787,43 @@
       <c r="V5" s="6"/>
       <c r="W5" s="6"/>
       <c r="X5" s="6" t="s">
-        <v>169</v>
+        <v>146</v>
       </c>
       <c r="Y5" s="6"/>
-      <c r="Z5" s="6"/>
-      <c r="AA5" s="6"/>
-      <c r="AB5" s="6"/>
-      <c r="AC5" s="1"/>
-      <c r="AD5" s="1"/>
-      <c r="AE5" s="1"/>
+      <c r="Z5" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="AA5" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="AB5" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="AC5" s="5"/>
+      <c r="AD5" s="5"/>
+      <c r="AE5" s="17" t="s">
+        <v>204</v>
+      </c>
       <c r="AF5" s="1"/>
     </row>
     <row r="6" spans="1:37" ht="409.6" x14ac:dyDescent="0.2">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7" t="s">
+      <c r="C6" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="D6" s="26" t="s">
         <v>63</v>
       </c>
-      <c r="E6" s="7"/>
+      <c r="E6" s="26" t="s">
+        <v>177</v>
+      </c>
       <c r="F6" s="6" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G6" s="6"/>
       <c r="H6" s="6"/>
@@ -1641,7 +5837,7 @@
       <c r="P6" s="6"/>
       <c r="Q6" s="6"/>
       <c r="R6" s="6" t="s">
-        <v>146</v>
+        <v>126</v>
       </c>
       <c r="S6" s="6"/>
       <c r="T6" s="6"/>
@@ -1649,47 +5845,61 @@
       <c r="V6" s="6"/>
       <c r="W6" s="6"/>
       <c r="X6" s="6" t="s">
-        <v>170</v>
+        <v>147</v>
       </c>
       <c r="Y6" s="6"/>
-      <c r="Z6" s="6"/>
-      <c r="AA6" s="6"/>
-      <c r="AB6" s="6"/>
-      <c r="AC6" s="1"/>
-      <c r="AD6" s="1"/>
-      <c r="AE6" s="1"/>
+      <c r="Z6" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="AA6" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="AB6" s="20" t="s">
+        <v>206</v>
+      </c>
+      <c r="AC6" s="17" t="s">
+        <v>207</v>
+      </c>
+      <c r="AD6" s="19" t="s">
+        <v>208</v>
+      </c>
+      <c r="AE6" s="4" t="s">
+        <v>215</v>
+      </c>
       <c r="AF6" s="1"/>
     </row>
     <row r="7" spans="1:37" ht="224" x14ac:dyDescent="0.2">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="26" t="s">
         <v>60</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="26" t="s">
         <v>62</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="26" t="s">
         <v>63</v>
       </c>
-      <c r="E7" s="7"/>
+      <c r="E7" s="26" t="s">
+        <v>177</v>
+      </c>
       <c r="F7" s="6" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G7" s="6"/>
       <c r="H7" s="6" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="J7" s="6"/>
       <c r="K7" s="6" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="L7" s="6" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="M7" s="6"/>
       <c r="N7" s="6"/>
@@ -1703,33 +5913,47 @@
       <c r="V7" s="6"/>
       <c r="W7" s="6"/>
       <c r="X7" s="6" t="s">
-        <v>171</v>
+        <v>148</v>
       </c>
       <c r="Y7" s="6"/>
-      <c r="Z7" s="6"/>
-      <c r="AA7" s="6"/>
-      <c r="AB7" s="6"/>
-      <c r="AC7" s="1"/>
-      <c r="AD7" s="1"/>
-      <c r="AE7" s="1"/>
+      <c r="Z7" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="AA7" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="AB7" s="22" t="s">
+        <v>211</v>
+      </c>
+      <c r="AC7" s="19" t="s">
+        <v>212</v>
+      </c>
+      <c r="AD7" s="19" t="s">
+        <v>213</v>
+      </c>
+      <c r="AE7" s="19" t="s">
+        <v>216</v>
+      </c>
       <c r="AF7" s="1"/>
     </row>
-    <row r="8" spans="1:37" ht="160" x14ac:dyDescent="0.2">
-      <c r="A8" s="4" t="s">
+    <row r="8" spans="1:37" ht="263" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="26" t="s">
         <v>59</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="26" t="s">
         <v>62</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="26" t="s">
         <v>63</v>
       </c>
-      <c r="E8" s="7"/>
+      <c r="E8" s="26" t="s">
+        <v>167</v>
+      </c>
       <c r="F8" s="6" t="s">
-        <v>71</v>
+        <v>219</v>
       </c>
       <c r="G8" s="6"/>
       <c r="H8" s="6"/>
@@ -1737,10 +5961,10 @@
       <c r="J8" s="6"/>
       <c r="K8" s="6"/>
       <c r="L8" s="6" t="s">
-        <v>104</v>
+        <v>220</v>
       </c>
       <c r="M8" s="6" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="N8" s="6"/>
       <c r="O8" s="6"/>
@@ -1753,38 +5977,64 @@
       <c r="V8" s="6"/>
       <c r="W8" s="6"/>
       <c r="X8" s="6" t="s">
-        <v>172</v>
+        <v>149</v>
       </c>
       <c r="Y8" s="6"/>
-      <c r="Z8" s="6"/>
-      <c r="AA8" s="6"/>
-      <c r="AB8" s="6"/>
-      <c r="AC8" s="1"/>
-      <c r="AD8" s="1"/>
-      <c r="AE8" s="1"/>
+      <c r="Z8" s="23" t="s">
+        <v>218</v>
+      </c>
+      <c r="AA8" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="AB8" s="24" t="s">
+        <v>221</v>
+      </c>
+      <c r="AC8" s="9" t="s">
+        <v>222</v>
+      </c>
+      <c r="AD8" s="5"/>
+      <c r="AE8" s="5"/>
       <c r="AF8" s="1"/>
     </row>
-    <row r="9" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A9" s="4" t="s">
+    <row r="9" spans="1:37" ht="169" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="26" t="s">
         <v>60</v>
       </c>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
+      <c r="C9" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="D9" s="26" t="s">
+        <v>63</v>
+      </c>
+      <c r="E9" s="26" t="s">
+        <v>201</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>227</v>
+      </c>
       <c r="I9" s="6"/>
       <c r="J9" s="6"/>
       <c r="K9" s="6"/>
       <c r="L9" s="6"/>
       <c r="M9" s="6"/>
-      <c r="N9" s="6"/>
-      <c r="O9" s="6"/>
-      <c r="P9" s="6"/>
+      <c r="N9" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="O9" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="P9" s="6" t="s">
+        <v>230</v>
+      </c>
       <c r="Q9" s="6"/>
       <c r="R9" s="6"/>
       <c r="S9" s="6"/>
@@ -1792,53 +6042,67 @@
       <c r="U9" s="6"/>
       <c r="V9" s="6"/>
       <c r="W9" s="6"/>
-      <c r="X9" s="6"/>
+      <c r="X9" s="6" t="s">
+        <v>228</v>
+      </c>
       <c r="Y9" s="6"/>
-      <c r="Z9" s="6"/>
-      <c r="AA9" s="6"/>
-      <c r="AB9" s="6"/>
-      <c r="AC9" s="1"/>
-      <c r="AD9" s="1"/>
-      <c r="AE9" s="1"/>
+      <c r="Z9" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="AA9" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="AB9" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="AC9" s="19" t="s">
+        <v>231</v>
+      </c>
+      <c r="AD9" s="19" t="s">
+        <v>232</v>
+      </c>
+      <c r="AE9" s="5"/>
       <c r="AF9" s="1"/>
     </row>
     <row r="10" spans="1:37" ht="409.6" x14ac:dyDescent="0.2">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="26" t="s">
         <v>59</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="26" t="s">
         <v>62</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="D10" s="26" t="s">
         <v>63</v>
       </c>
-      <c r="E10" s="7"/>
+      <c r="E10" s="26" t="s">
+        <v>167</v>
+      </c>
       <c r="F10" s="6" t="s">
-        <v>72</v>
+        <v>237</v>
       </c>
       <c r="G10" s="6"/>
       <c r="H10" s="6" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="I10" s="6"/>
       <c r="J10" s="6"/>
       <c r="K10" s="6"/>
       <c r="L10" s="6" t="s">
-        <v>105</v>
+        <v>238</v>
       </c>
       <c r="M10" s="6" t="s">
-        <v>113</v>
+        <v>239</v>
       </c>
       <c r="N10" s="6"/>
       <c r="O10" s="6"/>
       <c r="P10" s="6" t="s">
-        <v>134</v>
+        <v>236</v>
       </c>
       <c r="Q10" s="6" t="s">
-        <v>140</v>
+        <v>240</v>
       </c>
       <c r="R10" s="6"/>
       <c r="S10" s="6"/>
@@ -1847,33 +6111,45 @@
       <c r="V10" s="6"/>
       <c r="W10" s="6"/>
       <c r="X10" s="6" t="s">
-        <v>173</v>
+        <v>241</v>
       </c>
       <c r="Y10" s="6"/>
-      <c r="Z10" s="6"/>
-      <c r="AA10" s="6"/>
-      <c r="AB10" s="6"/>
-      <c r="AC10" s="1"/>
-      <c r="AD10" s="1"/>
-      <c r="AE10" s="1"/>
+      <c r="Z10" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="AA10" s="6" t="s">
+        <v>233</v>
+      </c>
+      <c r="AB10" s="25" t="s">
+        <v>235</v>
+      </c>
+      <c r="AC10" s="16" t="s">
+        <v>242</v>
+      </c>
+      <c r="AD10" s="17" t="s">
+        <v>243</v>
+      </c>
+      <c r="AE10" s="5"/>
       <c r="AF10" s="1"/>
     </row>
     <row r="11" spans="1:37" ht="395" x14ac:dyDescent="0.2">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="26" t="s">
         <v>59</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="26" t="s">
         <v>62</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="D11" s="26" t="s">
         <v>63</v>
       </c>
-      <c r="E11" s="7"/>
+      <c r="E11" s="26" t="s">
+        <v>201</v>
+      </c>
       <c r="F11" s="6" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
@@ -1881,18 +6157,18 @@
       <c r="J11" s="6"/>
       <c r="K11" s="6"/>
       <c r="L11" s="6" t="s">
-        <v>106</v>
+        <v>248</v>
       </c>
       <c r="M11" s="6" t="s">
-        <v>114</v>
+        <v>246</v>
       </c>
       <c r="N11" s="6"/>
       <c r="O11" s="6"/>
       <c r="P11" s="6" t="s">
-        <v>135</v>
+        <v>118</v>
       </c>
       <c r="Q11" s="6" t="s">
-        <v>141</v>
+        <v>247</v>
       </c>
       <c r="R11" s="6"/>
       <c r="S11" s="6"/>
@@ -1901,29 +6177,39 @@
       <c r="V11" s="6"/>
       <c r="W11" s="6"/>
       <c r="X11" s="6" t="s">
-        <v>174</v>
+        <v>150</v>
       </c>
       <c r="Y11" s="6"/>
-      <c r="Z11" s="6"/>
-      <c r="AA11" s="6"/>
-      <c r="AB11" s="6"/>
-      <c r="AC11" s="1"/>
-      <c r="AD11" s="1"/>
-      <c r="AE11" s="1"/>
+      <c r="Z11" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="AA11" s="6" t="s">
+        <v>244</v>
+      </c>
+      <c r="AB11" s="24" t="s">
+        <v>249</v>
+      </c>
+      <c r="AC11" s="19" t="s">
+        <v>250</v>
+      </c>
+      <c r="AD11" s="19" t="s">
+        <v>251</v>
+      </c>
+      <c r="AE11" s="5"/>
       <c r="AF11" s="1"/>
     </row>
-    <row r="12" spans="1:37" ht="160" x14ac:dyDescent="0.2">
-      <c r="A12" s="4" t="s">
+    <row r="12" spans="1:37" ht="96" x14ac:dyDescent="0.2">
+      <c r="A12" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="26" t="s">
         <v>60</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="C12" s="26" t="s">
         <v>62</v>
       </c>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
+      <c r="D12" s="26"/>
+      <c r="E12" s="26"/>
       <c r="F12" s="6"/>
       <c r="G12" s="6"/>
       <c r="H12" s="6"/>
@@ -1932,7 +6218,7 @@
       <c r="K12" s="6"/>
       <c r="L12" s="6"/>
       <c r="M12" s="6" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="N12" s="6"/>
       <c r="O12" s="6"/>
@@ -1942,7 +6228,7 @@
       <c r="S12" s="6"/>
       <c r="T12" s="6"/>
       <c r="U12" s="6" t="s">
-        <v>154</v>
+        <v>134</v>
       </c>
       <c r="V12" s="6"/>
       <c r="W12" s="6"/>
@@ -1951,27 +6237,27 @@
       <c r="Z12" s="6"/>
       <c r="AA12" s="6"/>
       <c r="AB12" s="6"/>
-      <c r="AC12" s="1"/>
-      <c r="AD12" s="1"/>
-      <c r="AE12" s="1"/>
+      <c r="AC12" s="5"/>
+      <c r="AD12" s="5"/>
+      <c r="AE12" s="5"/>
       <c r="AF12" s="1"/>
     </row>
-    <row r="13" spans="1:37" ht="272" x14ac:dyDescent="0.2">
-      <c r="A13" s="4" t="s">
+    <row r="13" spans="1:37" ht="240" x14ac:dyDescent="0.2">
+      <c r="A13" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="26" t="s">
         <v>59</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="C13" s="26" t="s">
         <v>61</v>
       </c>
-      <c r="D13" s="7" t="s">
+      <c r="D13" s="26" t="s">
         <v>64</v>
       </c>
-      <c r="E13" s="7"/>
+      <c r="E13" s="26"/>
       <c r="F13" s="6" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="G13" s="6"/>
       <c r="H13" s="6"/>
@@ -1982,46 +6268,46 @@
       <c r="M13" s="6"/>
       <c r="N13" s="6"/>
       <c r="O13" s="6" t="s">
-        <v>128</v>
+        <v>112</v>
       </c>
       <c r="P13" s="6" t="s">
-        <v>134</v>
+        <v>117</v>
       </c>
       <c r="Q13" s="6" t="s">
-        <v>142</v>
+        <v>122</v>
       </c>
       <c r="R13" s="6"/>
       <c r="S13" s="6"/>
       <c r="T13" s="6"/>
       <c r="U13" s="6"/>
       <c r="V13" s="6" t="s">
-        <v>159</v>
+        <v>138</v>
       </c>
       <c r="W13" s="6" t="s">
-        <v>164</v>
+        <v>142</v>
       </c>
       <c r="X13" s="6"/>
       <c r="Y13" s="6"/>
       <c r="Z13" s="6"/>
       <c r="AA13" s="6"/>
       <c r="AB13" s="6"/>
-      <c r="AC13" s="1"/>
-      <c r="AD13" s="1"/>
-      <c r="AE13" s="1"/>
+      <c r="AC13" s="5"/>
+      <c r="AD13" s="5"/>
+      <c r="AE13" s="5"/>
       <c r="AF13" s="1"/>
     </row>
     <row r="14" spans="1:37" ht="96" x14ac:dyDescent="0.2">
-      <c r="A14" s="4" t="s">
+      <c r="A14" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="26" t="s">
         <v>59</v>
       </c>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7" t="s">
+      <c r="C14" s="26"/>
+      <c r="D14" s="26" t="s">
         <v>64</v>
       </c>
-      <c r="E14" s="7"/>
+      <c r="E14" s="26"/>
       <c r="F14" s="6"/>
       <c r="G14" s="6"/>
       <c r="H14" s="6"/>
@@ -2039,7 +6325,7 @@
       <c r="T14" s="6"/>
       <c r="U14" s="6"/>
       <c r="V14" s="6" t="s">
-        <v>160</v>
+        <v>139</v>
       </c>
       <c r="W14" s="6"/>
       <c r="X14" s="6"/>
@@ -2047,25 +6333,25 @@
       <c r="Z14" s="6"/>
       <c r="AA14" s="6"/>
       <c r="AB14" s="6"/>
-      <c r="AC14" s="1"/>
-      <c r="AD14" s="1"/>
-      <c r="AE14" s="1"/>
+      <c r="AC14" s="5"/>
+      <c r="AD14" s="5"/>
+      <c r="AE14" s="5"/>
       <c r="AF14" s="1"/>
     </row>
-    <row r="15" spans="1:37" ht="288" x14ac:dyDescent="0.2">
-      <c r="A15" s="4" t="s">
+    <row r="15" spans="1:37" ht="64" x14ac:dyDescent="0.2">
+      <c r="A15" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="26" t="s">
         <v>59</v>
       </c>
-      <c r="C15" s="7" t="s">
+      <c r="C15" s="26" t="s">
         <v>61</v>
       </c>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
+      <c r="D15" s="26"/>
+      <c r="E15" s="26"/>
       <c r="F15" s="6" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="G15" s="6"/>
       <c r="H15" s="6"/>
@@ -2075,11 +6361,11 @@
       <c r="L15" s="6"/>
       <c r="M15" s="6"/>
       <c r="N15" s="6" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
       <c r="O15" s="6"/>
       <c r="P15" s="6" t="s">
-        <v>136</v>
+        <v>119</v>
       </c>
       <c r="Q15" s="6"/>
       <c r="R15" s="6"/>
@@ -2093,30 +6379,44 @@
       <c r="Z15" s="6"/>
       <c r="AA15" s="6"/>
       <c r="AB15" s="6"/>
-      <c r="AC15" s="1"/>
-      <c r="AD15" s="1"/>
-      <c r="AE15" s="1"/>
+      <c r="AC15" s="5"/>
+      <c r="AD15" s="5"/>
+      <c r="AE15" s="5"/>
       <c r="AF15" s="1"/>
     </row>
-    <row r="16" spans="1:37" ht="112" x14ac:dyDescent="0.2">
-      <c r="A16" s="4" t="s">
+    <row r="16" spans="1:37" ht="243" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="B16" s="7" t="s">
+      <c r="B16" s="26" t="s">
         <v>60</v>
       </c>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="6"/>
+      <c r="C16" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="D16" s="26" t="s">
+        <v>63</v>
+      </c>
+      <c r="E16" s="26" t="s">
+        <v>177</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>281</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>284</v>
+      </c>
+      <c r="H16" s="6" t="s">
+        <v>279</v>
+      </c>
       <c r="I16" s="6"/>
       <c r="J16" s="6"/>
       <c r="K16" s="6"/>
       <c r="L16" s="6"/>
       <c r="M16" s="6"/>
-      <c r="N16" s="6"/>
+      <c r="N16" s="6" t="s">
+        <v>286</v>
+      </c>
       <c r="O16" s="6"/>
       <c r="P16" s="6"/>
       <c r="Q16" s="6"/>
@@ -2124,57 +6424,69 @@
       <c r="S16" s="6"/>
       <c r="T16" s="6"/>
       <c r="U16" s="6" t="s">
-        <v>155</v>
+        <v>282</v>
       </c>
       <c r="V16" s="6"/>
       <c r="W16" s="6"/>
-      <c r="X16" s="6"/>
-      <c r="Y16" s="6"/>
-      <c r="Z16" s="6"/>
-      <c r="AA16" s="6"/>
-      <c r="AB16" s="6"/>
-      <c r="AC16" s="1"/>
-      <c r="AD16" s="1"/>
-      <c r="AE16" s="1"/>
+      <c r="X16" s="6" t="s">
+        <v>285</v>
+      </c>
+      <c r="Y16" s="6" t="s">
+        <v>283</v>
+      </c>
+      <c r="Z16" s="6" t="s">
+        <v>277</v>
+      </c>
+      <c r="AA16" s="6" t="s">
+        <v>278</v>
+      </c>
+      <c r="AB16" s="25" t="s">
+        <v>280</v>
+      </c>
+      <c r="AC16" s="9" t="s">
+        <v>287</v>
+      </c>
+      <c r="AD16" s="5"/>
+      <c r="AE16" s="5"/>
       <c r="AF16" s="1"/>
     </row>
     <row r="17" spans="1:32" ht="256" x14ac:dyDescent="0.2">
-      <c r="A17" s="4" t="s">
+      <c r="A17" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="B17" s="7" t="s">
+      <c r="B17" s="26" t="s">
         <v>59</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="C17" s="26" t="s">
         <v>62</v>
       </c>
-      <c r="D17" s="7" t="s">
+      <c r="D17" s="26" t="s">
         <v>63</v>
       </c>
-      <c r="E17" s="7"/>
+      <c r="E17" s="26"/>
       <c r="F17" s="6" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="H17" s="6"/>
       <c r="I17" s="6"/>
       <c r="J17" s="6"/>
       <c r="K17" s="6"/>
       <c r="L17" s="6" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="M17" s="6" t="s">
-        <v>116</v>
+        <v>103</v>
       </c>
       <c r="N17" s="6"/>
       <c r="O17" s="6"/>
       <c r="P17" s="6" t="s">
-        <v>135</v>
+        <v>118</v>
       </c>
       <c r="Q17" s="6" t="s">
-        <v>143</v>
+        <v>123</v>
       </c>
       <c r="R17" s="6"/>
       <c r="S17" s="6"/>
@@ -2183,29 +6495,35 @@
       <c r="V17" s="6"/>
       <c r="W17" s="6"/>
       <c r="X17" s="6" t="s">
-        <v>175</v>
+        <v>151</v>
       </c>
       <c r="Y17" s="6" t="s">
-        <v>182</v>
+        <v>157</v>
       </c>
       <c r="Z17" s="6"/>
       <c r="AA17" s="6"/>
       <c r="AB17" s="6"/>
-      <c r="AC17" s="1"/>
-      <c r="AD17" s="1"/>
-      <c r="AE17" s="1"/>
+      <c r="AC17" s="5"/>
+      <c r="AD17" s="5"/>
+      <c r="AE17" s="5"/>
       <c r="AF17" s="1"/>
     </row>
-    <row r="18" spans="1:32" ht="32" x14ac:dyDescent="0.2">
-      <c r="A18" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="B18" s="7" t="s">
+    <row r="18" spans="1:32" ht="187" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="27" t="s">
+        <v>269</v>
+      </c>
+      <c r="B18" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
+      <c r="C18" s="6" t="s">
+        <v>261</v>
+      </c>
+      <c r="D18" s="26" t="s">
+        <v>63</v>
+      </c>
+      <c r="E18" s="26" t="s">
+        <v>167</v>
+      </c>
       <c r="F18" s="6"/>
       <c r="G18" s="6"/>
       <c r="H18" s="6"/>
@@ -2218,152 +6536,152 @@
       <c r="O18" s="6"/>
       <c r="P18" s="6"/>
       <c r="Q18" s="6"/>
-      <c r="R18" s="6" t="s">
-        <v>147</v>
-      </c>
-      <c r="S18" s="6" t="s">
-        <v>151</v>
-      </c>
+      <c r="R18" s="6"/>
+      <c r="S18" s="6"/>
       <c r="T18" s="6"/>
       <c r="U18" s="6"/>
       <c r="V18" s="6"/>
       <c r="W18" s="6"/>
       <c r="X18" s="6"/>
       <c r="Y18" s="6"/>
-      <c r="Z18" s="6"/>
-      <c r="AA18" s="6"/>
-      <c r="AB18" s="6"/>
-      <c r="AC18" s="1"/>
-      <c r="AD18" s="1"/>
-      <c r="AE18" s="1"/>
+      <c r="Z18" s="6" t="s">
+        <v>270</v>
+      </c>
+      <c r="AA18" s="6" t="s">
+        <v>271</v>
+      </c>
+      <c r="AB18" s="22" t="s">
+        <v>272</v>
+      </c>
+      <c r="AC18" s="5"/>
+      <c r="AD18" s="5"/>
+      <c r="AE18" s="5"/>
       <c r="AF18" s="1"/>
     </row>
-    <row r="19" spans="1:32" ht="380" x14ac:dyDescent="0.2">
-      <c r="A19" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="B19" s="7"/>
-      <c r="C19" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="D19" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="E19" s="7"/>
-      <c r="F19" s="6" t="s">
-        <v>77</v>
-      </c>
+    <row r="19" spans="1:32" ht="140" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="B19" s="26" t="s">
+        <v>58</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>261</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="E19" s="26" t="s">
+        <v>177</v>
+      </c>
+      <c r="F19" s="6"/>
       <c r="G19" s="6"/>
       <c r="H19" s="6"/>
       <c r="I19" s="6"/>
       <c r="J19" s="6"/>
       <c r="K19" s="6"/>
-      <c r="L19" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="M19" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="N19" s="6"/>
-      <c r="O19" s="6"/>
+      <c r="L19" s="6"/>
+      <c r="M19" s="6"/>
+      <c r="N19" s="6" t="s">
+        <v>265</v>
+      </c>
+      <c r="O19" s="6" t="s">
+        <v>266</v>
+      </c>
       <c r="P19" s="6"/>
       <c r="Q19" s="6"/>
-      <c r="R19" s="6"/>
-      <c r="S19" s="6"/>
+      <c r="R19" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="S19" s="6" t="s">
+        <v>131</v>
+      </c>
       <c r="T19" s="6"/>
       <c r="U19" s="6"/>
-      <c r="V19" s="6" t="s">
-        <v>161</v>
-      </c>
-      <c r="W19" s="6" t="s">
-        <v>165</v>
-      </c>
+      <c r="V19" s="6"/>
+      <c r="W19" s="6"/>
       <c r="X19" s="6"/>
       <c r="Y19" s="6"/>
-      <c r="Z19" s="6"/>
-      <c r="AA19" s="6"/>
-      <c r="AB19" s="6"/>
-      <c r="AC19" s="1"/>
-      <c r="AD19" s="1"/>
-      <c r="AE19" s="1"/>
+      <c r="Z19" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="AA19" s="6" t="s">
+        <v>264</v>
+      </c>
+      <c r="AB19" s="22" t="s">
+        <v>267</v>
+      </c>
+      <c r="AC19" s="19" t="s">
+        <v>268</v>
+      </c>
+      <c r="AD19" s="5"/>
+      <c r="AE19" s="5"/>
       <c r="AF19" s="1"/>
     </row>
-    <row r="20" spans="1:32" ht="409.6" x14ac:dyDescent="0.2">
-      <c r="A20" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B20" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="C20" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="D20" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="E20" s="7"/>
-      <c r="F20" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="G20" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="H20" s="6" t="s">
-        <v>93</v>
-      </c>
+    <row r="20" spans="1:32" ht="140" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="27" t="s">
+        <v>273</v>
+      </c>
+      <c r="B20" s="26"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="26"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
       <c r="I20" s="6"/>
       <c r="J20" s="6"/>
       <c r="K20" s="6"/>
-      <c r="L20" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="M20" s="6" t="s">
-        <v>118</v>
-      </c>
+      <c r="L20" s="6"/>
+      <c r="M20" s="6"/>
       <c r="N20" s="6"/>
       <c r="O20" s="6"/>
-      <c r="P20" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="Q20" s="6" t="s">
-        <v>144</v>
-      </c>
+      <c r="P20" s="6"/>
+      <c r="Q20" s="6"/>
       <c r="R20" s="6"/>
       <c r="S20" s="6"/>
       <c r="T20" s="6"/>
       <c r="U20" s="6"/>
       <c r="V20" s="6"/>
       <c r="W20" s="6"/>
-      <c r="X20" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="Y20" s="6" t="s">
-        <v>182</v>
-      </c>
+      <c r="X20" s="6"/>
+      <c r="Y20" s="6"/>
       <c r="Z20" s="6"/>
       <c r="AA20" s="6"/>
-      <c r="AB20" s="6"/>
-      <c r="AC20" s="1"/>
-      <c r="AD20" s="1"/>
-      <c r="AE20" s="1"/>
+      <c r="AB20" s="22" t="s">
+        <v>274</v>
+      </c>
+      <c r="AC20" s="19"/>
+      <c r="AD20" s="5"/>
+      <c r="AE20" s="5"/>
       <c r="AF20" s="1"/>
     </row>
-    <row r="21" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A21" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="B21" s="7"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="6"/>
+    <row r="21" spans="1:32" ht="380" x14ac:dyDescent="0.2">
+      <c r="A21" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="B21" s="26"/>
+      <c r="C21" s="26" t="s">
+        <v>62</v>
+      </c>
+      <c r="D21" s="26" t="s">
+        <v>64</v>
+      </c>
+      <c r="E21" s="26"/>
+      <c r="F21" s="6" t="s">
+        <v>73</v>
+      </c>
       <c r="G21" s="6"/>
       <c r="H21" s="6"/>
       <c r="I21" s="6"/>
       <c r="J21" s="6"/>
       <c r="K21" s="6"/>
-      <c r="L21" s="6"/>
-      <c r="M21" s="6"/>
+      <c r="L21" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="M21" s="6" t="s">
+        <v>104</v>
+      </c>
       <c r="N21" s="6"/>
       <c r="O21" s="6"/>
       <c r="P21" s="6"/>
@@ -2372,69 +6690,91 @@
       <c r="S21" s="6"/>
       <c r="T21" s="6"/>
       <c r="U21" s="6"/>
-      <c r="V21" s="6"/>
-      <c r="W21" s="6"/>
+      <c r="V21" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="W21" s="6" t="s">
+        <v>143</v>
+      </c>
       <c r="X21" s="6"/>
       <c r="Y21" s="6"/>
       <c r="Z21" s="6"/>
       <c r="AA21" s="6"/>
       <c r="AB21" s="6"/>
-      <c r="AC21" s="1"/>
-      <c r="AD21" s="1"/>
-      <c r="AE21" s="1"/>
+      <c r="AC21" s="5"/>
+      <c r="AD21" s="5"/>
+      <c r="AE21" s="5"/>
       <c r="AF21" s="1"/>
     </row>
-    <row r="22" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A22" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="B22" s="7"/>
-      <c r="C22" s="7"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="6"/>
-      <c r="H22" s="6"/>
+    <row r="22" spans="1:32" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A22" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="B22" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="C22" s="26" t="s">
+        <v>62</v>
+      </c>
+      <c r="D22" s="26" t="s">
+        <v>63</v>
+      </c>
+      <c r="E22" s="26"/>
+      <c r="F22" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="G22" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="H22" s="6" t="s">
+        <v>87</v>
+      </c>
       <c r="I22" s="6"/>
       <c r="J22" s="6"/>
       <c r="K22" s="6"/>
-      <c r="L22" s="6"/>
-      <c r="M22" s="6"/>
+      <c r="L22" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="M22" s="6" t="s">
+        <v>105</v>
+      </c>
       <c r="N22" s="6"/>
       <c r="O22" s="6"/>
-      <c r="P22" s="6"/>
-      <c r="Q22" s="6"/>
+      <c r="P22" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q22" s="6" t="s">
+        <v>124</v>
+      </c>
       <c r="R22" s="6"/>
       <c r="S22" s="6"/>
       <c r="T22" s="6"/>
       <c r="U22" s="6"/>
       <c r="V22" s="6"/>
       <c r="W22" s="6"/>
-      <c r="X22" s="6"/>
-      <c r="Y22" s="6"/>
+      <c r="X22" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="Y22" s="6" t="s">
+        <v>157</v>
+      </c>
       <c r="Z22" s="6"/>
       <c r="AA22" s="6"/>
       <c r="AB22" s="6"/>
-      <c r="AC22" s="1"/>
-      <c r="AD22" s="1"/>
-      <c r="AE22" s="1"/>
+      <c r="AC22" s="5"/>
+      <c r="AD22" s="5"/>
+      <c r="AE22" s="5"/>
       <c r="AF22" s="1"/>
     </row>
-    <row r="23" spans="1:32" ht="176" x14ac:dyDescent="0.2">
-      <c r="A23" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="B23" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="C23" s="7"/>
-      <c r="D23" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="E23" s="7"/>
-      <c r="F23" s="6" t="s">
-        <v>79</v>
-      </c>
+    <row r="23" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A23" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="B23" s="26"/>
+      <c r="C23" s="26"/>
+      <c r="D23" s="26"/>
+      <c r="E23" s="26"/>
+      <c r="F23" s="6"/>
       <c r="G23" s="6"/>
       <c r="H23" s="6"/>
       <c r="I23" s="6"/>
@@ -2448,34 +6788,28 @@
       <c r="Q23" s="6"/>
       <c r="R23" s="6"/>
       <c r="S23" s="6"/>
-      <c r="T23" s="6" t="s">
-        <v>153</v>
-      </c>
+      <c r="T23" s="6"/>
       <c r="U23" s="6"/>
       <c r="V23" s="6"/>
       <c r="W23" s="6"/>
-      <c r="X23" s="6" t="s">
-        <v>177</v>
-      </c>
+      <c r="X23" s="6"/>
       <c r="Y23" s="6"/>
       <c r="Z23" s="6"/>
       <c r="AA23" s="6"/>
       <c r="AB23" s="6"/>
-      <c r="AC23" s="1"/>
-      <c r="AD23" s="1"/>
-      <c r="AE23" s="1"/>
+      <c r="AC23" s="5"/>
+      <c r="AD23" s="5"/>
+      <c r="AE23" s="5"/>
       <c r="AF23" s="1"/>
     </row>
-    <row r="24" spans="1:32" ht="272" x14ac:dyDescent="0.2">
-      <c r="A24" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="B24" s="7"/>
-      <c r="C24" s="7"/>
-      <c r="D24" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="E24" s="7"/>
+    <row r="24" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A24" s="27" t="s">
+        <v>276</v>
+      </c>
+      <c r="B24" s="26"/>
+      <c r="C24" s="26"/>
+      <c r="D24" s="26"/>
+      <c r="E24" s="26"/>
       <c r="F24" s="6"/>
       <c r="G24" s="6"/>
       <c r="H24" s="6"/>
@@ -2492,116 +6826,160 @@
       <c r="S24" s="6"/>
       <c r="T24" s="6"/>
       <c r="U24" s="6"/>
-      <c r="V24" s="6" t="s">
-        <v>162</v>
-      </c>
-      <c r="W24" s="6" t="s">
-        <v>166</v>
-      </c>
+      <c r="V24" s="6"/>
+      <c r="W24" s="6"/>
       <c r="X24" s="6"/>
       <c r="Y24" s="6"/>
       <c r="Z24" s="6"/>
       <c r="AA24" s="6"/>
       <c r="AB24" s="6"/>
-      <c r="AC24" s="1"/>
-      <c r="AD24" s="1"/>
-      <c r="AE24" s="1"/>
+      <c r="AC24" s="5"/>
+      <c r="AD24" s="5"/>
+      <c r="AE24" s="5"/>
       <c r="AF24" s="1"/>
     </row>
-    <row r="25" spans="1:32" ht="224" x14ac:dyDescent="0.2">
-      <c r="A25" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="B25" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="C25" s="7"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="7"/>
+    <row r="25" spans="1:32" ht="149" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="B25" s="26" t="s">
+        <v>60</v>
+      </c>
+      <c r="C25" s="26" t="s">
+        <v>62</v>
+      </c>
+      <c r="D25" s="26" t="s">
+        <v>63</v>
+      </c>
+      <c r="E25" s="26" t="s">
+        <v>201</v>
+      </c>
       <c r="F25" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="G25" s="6"/>
+        <v>297</v>
+      </c>
+      <c r="G25" s="6" t="s">
+        <v>296</v>
+      </c>
       <c r="H25" s="6" t="s">
-        <v>94</v>
+        <v>298</v>
       </c>
       <c r="I25" s="6"/>
       <c r="J25" s="6"/>
       <c r="K25" s="6"/>
-      <c r="L25" s="6"/>
-      <c r="M25" s="6"/>
+      <c r="L25" s="6" t="s">
+        <v>302</v>
+      </c>
+      <c r="M25" s="6" t="s">
+        <v>303</v>
+      </c>
       <c r="N25" s="6"/>
       <c r="O25" s="6"/>
       <c r="P25" s="6"/>
       <c r="Q25" s="6"/>
-      <c r="R25" s="6" t="s">
-        <v>148</v>
-      </c>
+      <c r="R25" s="6"/>
       <c r="S25" s="6"/>
-      <c r="T25" s="6"/>
-      <c r="U25" s="6"/>
+      <c r="T25" s="6" t="s">
+        <v>295</v>
+      </c>
+      <c r="U25" s="6" t="s">
+        <v>296</v>
+      </c>
       <c r="V25" s="6"/>
       <c r="W25" s="6"/>
-      <c r="X25" s="6"/>
-      <c r="Y25" s="6"/>
-      <c r="Z25" s="6"/>
-      <c r="AA25" s="6"/>
-      <c r="AB25" s="6"/>
-      <c r="AC25" s="1"/>
-      <c r="AD25" s="1"/>
-      <c r="AE25" s="1"/>
+      <c r="X25" s="6" t="s">
+        <v>299</v>
+      </c>
+      <c r="Y25" s="6" t="s">
+        <v>300</v>
+      </c>
+      <c r="Z25" s="6" t="s">
+        <v>301</v>
+      </c>
+      <c r="AA25" s="6" t="s">
+        <v>304</v>
+      </c>
+      <c r="AB25" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="AC25" s="19" t="s">
+        <v>305</v>
+      </c>
+      <c r="AD25" s="5"/>
+      <c r="AE25" s="5"/>
       <c r="AF25" s="1"/>
     </row>
-    <row r="26" spans="1:32" ht="112" x14ac:dyDescent="0.2">
-      <c r="A26" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="B26" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="C26" s="7"/>
-      <c r="D26" s="7"/>
-      <c r="E26" s="7"/>
+    <row r="26" spans="1:32" ht="128" x14ac:dyDescent="0.2">
+      <c r="A26" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="B26" s="26" t="s">
+        <v>60</v>
+      </c>
+      <c r="C26" s="26" t="s">
+        <v>62</v>
+      </c>
+      <c r="D26" s="26" t="s">
+        <v>63</v>
+      </c>
+      <c r="E26" s="26" t="s">
+        <v>167</v>
+      </c>
       <c r="F26" s="6" t="s">
-        <v>81</v>
+        <v>292</v>
       </c>
       <c r="G26" s="6"/>
       <c r="H26" s="6"/>
       <c r="I26" s="6"/>
       <c r="J26" s="6"/>
       <c r="K26" s="6"/>
-      <c r="L26" s="6"/>
-      <c r="M26" s="6"/>
+      <c r="L26" s="6" t="s">
+        <v>291</v>
+      </c>
+      <c r="M26" s="6" t="s">
+        <v>290</v>
+      </c>
       <c r="N26" s="6"/>
       <c r="O26" s="6"/>
-      <c r="P26" s="6" t="s">
-        <v>138</v>
-      </c>
+      <c r="P26" s="6"/>
       <c r="Q26" s="6"/>
       <c r="R26" s="6"/>
       <c r="S26" s="6"/>
-      <c r="T26" s="6"/>
+      <c r="T26" s="6" t="s">
+        <v>133</v>
+      </c>
       <c r="U26" s="6"/>
       <c r="V26" s="6"/>
       <c r="W26" s="6"/>
-      <c r="X26" s="6"/>
+      <c r="X26" s="6" t="s">
+        <v>153</v>
+      </c>
       <c r="Y26" s="6"/>
-      <c r="Z26" s="6"/>
-      <c r="AA26" s="6"/>
-      <c r="AB26" s="6"/>
-      <c r="AC26" s="1"/>
-      <c r="AD26" s="1"/>
-      <c r="AE26" s="1"/>
+      <c r="Z26" s="6" t="s">
+        <v>288</v>
+      </c>
+      <c r="AA26" s="6" t="s">
+        <v>289</v>
+      </c>
+      <c r="AB26" s="25" t="s">
+        <v>293</v>
+      </c>
+      <c r="AC26" s="19" t="s">
+        <v>294</v>
+      </c>
+      <c r="AD26" s="5"/>
+      <c r="AE26" s="5"/>
       <c r="AF26" s="1"/>
     </row>
-    <row r="27" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A27" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="B27" s="7"/>
-      <c r="C27" s="7"/>
-      <c r="D27" s="7"/>
-      <c r="E27" s="7"/>
+    <row r="27" spans="1:32" ht="272" x14ac:dyDescent="0.2">
+      <c r="A27" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="B27" s="26"/>
+      <c r="C27" s="26"/>
+      <c r="D27" s="26" t="s">
+        <v>64</v>
+      </c>
+      <c r="E27" s="26"/>
       <c r="F27" s="6"/>
       <c r="G27" s="6"/>
       <c r="H27" s="6"/>
@@ -2618,141 +6996,117 @@
       <c r="S27" s="6"/>
       <c r="T27" s="6"/>
       <c r="U27" s="6"/>
-      <c r="V27" s="6"/>
-      <c r="W27" s="6"/>
+      <c r="V27" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="W27" s="6" t="s">
+        <v>144</v>
+      </c>
       <c r="X27" s="6"/>
       <c r="Y27" s="6"/>
       <c r="Z27" s="6"/>
       <c r="AA27" s="6"/>
       <c r="AB27" s="6"/>
-      <c r="AC27" s="1"/>
-      <c r="AD27" s="1"/>
-      <c r="AE27" s="1"/>
+      <c r="AC27" s="5"/>
+      <c r="AD27" s="5"/>
+      <c r="AE27" s="5"/>
       <c r="AF27" s="1"/>
     </row>
-    <row r="28" spans="1:32" ht="240" x14ac:dyDescent="0.2">
-      <c r="A28" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="B28" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="C28" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="D28" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="E28" s="7"/>
+    <row r="28" spans="1:32" ht="224" x14ac:dyDescent="0.2">
+      <c r="A28" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="B28" s="26" t="s">
+        <v>58</v>
+      </c>
+      <c r="C28" s="26"/>
+      <c r="D28" s="26"/>
+      <c r="E28" s="26"/>
       <c r="F28" s="6" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="G28" s="6"/>
-      <c r="H28" s="6"/>
+      <c r="H28" s="6" t="s">
+        <v>88</v>
+      </c>
       <c r="I28" s="6"/>
       <c r="J28" s="6"/>
       <c r="K28" s="6"/>
-      <c r="L28" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="M28" s="6" t="s">
-        <v>119</v>
-      </c>
+      <c r="L28" s="6"/>
+      <c r="M28" s="6"/>
       <c r="N28" s="6"/>
       <c r="O28" s="6"/>
-      <c r="P28" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="Q28" s="6" t="s">
-        <v>145</v>
-      </c>
-      <c r="R28" s="6"/>
+      <c r="P28" s="6"/>
+      <c r="Q28" s="6"/>
+      <c r="R28" s="6" t="s">
+        <v>128</v>
+      </c>
       <c r="S28" s="6"/>
       <c r="T28" s="6"/>
       <c r="U28" s="6"/>
       <c r="V28" s="6"/>
       <c r="W28" s="6"/>
-      <c r="X28" s="6" t="s">
-        <v>178</v>
-      </c>
+      <c r="X28" s="6"/>
       <c r="Y28" s="6"/>
       <c r="Z28" s="6"/>
       <c r="AA28" s="6"/>
       <c r="AB28" s="6"/>
-      <c r="AC28" s="1"/>
-      <c r="AD28" s="1"/>
-      <c r="AE28" s="1"/>
+      <c r="AC28" s="5"/>
+      <c r="AD28" s="5"/>
+      <c r="AE28" s="5"/>
       <c r="AF28" s="1"/>
     </row>
-    <row r="29" spans="1:32" ht="365" x14ac:dyDescent="0.2">
-      <c r="A29" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="B29" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="C29" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="D29" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="E29" s="7"/>
+    <row r="29" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+      <c r="A29" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="B29" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="C29" s="26"/>
+      <c r="D29" s="26"/>
+      <c r="E29" s="26"/>
       <c r="F29" s="6" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="G29" s="6"/>
-      <c r="H29" s="6" t="s">
-        <v>95</v>
-      </c>
+      <c r="H29" s="6"/>
       <c r="I29" s="6"/>
       <c r="J29" s="6"/>
       <c r="K29" s="6"/>
-      <c r="L29" s="6" t="s">
-        <v>111</v>
-      </c>
+      <c r="L29" s="6"/>
       <c r="M29" s="6"/>
       <c r="N29" s="6"/>
       <c r="O29" s="6"/>
-      <c r="P29" s="6"/>
+      <c r="P29" s="6" t="s">
+        <v>121</v>
+      </c>
       <c r="Q29" s="6"/>
-      <c r="R29" s="6" t="s">
-        <v>149</v>
-      </c>
+      <c r="R29" s="6"/>
       <c r="S29" s="6"/>
       <c r="T29" s="6"/>
       <c r="U29" s="6"/>
       <c r="V29" s="6"/>
       <c r="W29" s="6"/>
-      <c r="X29" s="6" t="s">
-        <v>179</v>
-      </c>
+      <c r="X29" s="6"/>
       <c r="Y29" s="6"/>
       <c r="Z29" s="6"/>
       <c r="AA29" s="6"/>
       <c r="AB29" s="6"/>
-      <c r="AC29" s="1"/>
-      <c r="AD29" s="1"/>
-      <c r="AE29" s="1"/>
+      <c r="AC29" s="5"/>
+      <c r="AD29" s="5"/>
+      <c r="AE29" s="5"/>
       <c r="AF29" s="1"/>
     </row>
-    <row r="30" spans="1:32" ht="409.6" x14ac:dyDescent="0.2">
-      <c r="A30" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="B30" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="C30" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="D30" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="E30" s="7"/>
-      <c r="F30" s="6" t="s">
-        <v>84</v>
-      </c>
+    <row r="30" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A30" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="B30" s="26"/>
+      <c r="C30" s="26"/>
+      <c r="D30" s="26"/>
+      <c r="E30" s="26"/>
+      <c r="F30" s="6"/>
       <c r="G30" s="6"/>
       <c r="H30" s="6"/>
       <c r="I30" s="6"/>
@@ -2760,236 +7114,246 @@
       <c r="K30" s="6"/>
       <c r="L30" s="6"/>
       <c r="M30" s="6"/>
-      <c r="N30" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="O30" s="6" t="s">
-        <v>129</v>
-      </c>
+      <c r="N30" s="6"/>
+      <c r="O30" s="6"/>
       <c r="P30" s="6"/>
       <c r="Q30" s="6"/>
       <c r="R30" s="6"/>
       <c r="S30" s="6"/>
-      <c r="T30" s="6" t="s">
-        <v>153</v>
-      </c>
-      <c r="U30" s="6" t="s">
-        <v>156</v>
-      </c>
+      <c r="T30" s="6"/>
+      <c r="U30" s="6"/>
       <c r="V30" s="6"/>
       <c r="W30" s="6"/>
-      <c r="X30" s="6" t="s">
-        <v>180</v>
-      </c>
+      <c r="X30" s="6"/>
       <c r="Y30" s="6"/>
       <c r="Z30" s="6"/>
       <c r="AA30" s="6"/>
       <c r="AB30" s="6"/>
-      <c r="AC30" s="1"/>
-      <c r="AD30" s="1"/>
-      <c r="AE30" s="1"/>
+      <c r="AC30" s="5"/>
+      <c r="AD30" s="5"/>
+      <c r="AE30" s="5"/>
       <c r="AF30" s="1"/>
     </row>
-    <row r="31" spans="1:32" ht="112" x14ac:dyDescent="0.2">
-      <c r="A31" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="B31" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="C31" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="D31" s="7"/>
-      <c r="E31" s="7"/>
-      <c r="F31" s="6"/>
+    <row r="31" spans="1:32" ht="224" x14ac:dyDescent="0.2">
+      <c r="A31" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="B31" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="C31" s="26" t="s">
+        <v>62</v>
+      </c>
+      <c r="D31" s="26" t="s">
+        <v>63</v>
+      </c>
+      <c r="E31" s="26"/>
+      <c r="F31" s="6" t="s">
+        <v>77</v>
+      </c>
       <c r="G31" s="6"/>
       <c r="H31" s="6"/>
       <c r="I31" s="6"/>
       <c r="J31" s="6"/>
       <c r="K31" s="6"/>
-      <c r="L31" s="6"/>
-      <c r="M31" s="6"/>
+      <c r="L31" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="M31" s="6" t="s">
+        <v>106</v>
+      </c>
       <c r="N31" s="6"/>
-      <c r="O31" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="P31" s="6"/>
-      <c r="Q31" s="6"/>
+      <c r="O31" s="6"/>
+      <c r="P31" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q31" s="6" t="s">
+        <v>125</v>
+      </c>
       <c r="R31" s="6"/>
       <c r="S31" s="6"/>
       <c r="T31" s="6"/>
-      <c r="U31" s="6" t="s">
-        <v>155</v>
-      </c>
+      <c r="U31" s="6"/>
       <c r="V31" s="6"/>
       <c r="W31" s="6"/>
-      <c r="X31" s="6"/>
+      <c r="X31" s="6" t="s">
+        <v>154</v>
+      </c>
       <c r="Y31" s="6"/>
       <c r="Z31" s="6"/>
       <c r="AA31" s="6"/>
       <c r="AB31" s="6"/>
-      <c r="AC31" s="1"/>
-      <c r="AD31" s="1"/>
-      <c r="AE31" s="1"/>
+      <c r="AC31" s="5"/>
+      <c r="AD31" s="5"/>
+      <c r="AE31" s="5"/>
       <c r="AF31" s="1"/>
     </row>
-    <row r="32" spans="1:32" ht="112" x14ac:dyDescent="0.2">
-      <c r="A32" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="B32" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="C32" s="7"/>
-      <c r="D32" s="7"/>
-      <c r="E32" s="7"/>
+    <row r="32" spans="1:32" ht="365" x14ac:dyDescent="0.2">
+      <c r="A32" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="B32" s="26" t="s">
+        <v>58</v>
+      </c>
+      <c r="C32" s="26" t="s">
+        <v>62</v>
+      </c>
+      <c r="D32" s="26" t="s">
+        <v>63</v>
+      </c>
+      <c r="E32" s="26"/>
       <c r="F32" s="6" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="G32" s="6"/>
       <c r="H32" s="6" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="I32" s="6"/>
       <c r="J32" s="6"/>
       <c r="K32" s="6"/>
-      <c r="L32" s="6"/>
+      <c r="L32" s="6" t="s">
+        <v>100</v>
+      </c>
       <c r="M32" s="6"/>
       <c r="N32" s="6"/>
       <c r="O32" s="6"/>
       <c r="P32" s="6"/>
       <c r="Q32" s="6"/>
-      <c r="R32" s="6"/>
+      <c r="R32" s="6" t="s">
+        <v>129</v>
+      </c>
       <c r="S32" s="6"/>
       <c r="T32" s="6"/>
-      <c r="U32" s="6" t="s">
-        <v>157</v>
-      </c>
+      <c r="U32" s="6"/>
       <c r="V32" s="6"/>
       <c r="W32" s="6"/>
-      <c r="X32" s="6"/>
+      <c r="X32" s="6" t="s">
+        <v>155</v>
+      </c>
       <c r="Y32" s="6"/>
       <c r="Z32" s="6"/>
       <c r="AA32" s="6"/>
       <c r="AB32" s="6"/>
-      <c r="AC32" s="1"/>
-      <c r="AD32" s="1"/>
-      <c r="AE32" s="1"/>
+      <c r="AC32" s="5"/>
+      <c r="AD32" s="5"/>
+      <c r="AE32" s="5"/>
       <c r="AF32" s="1"/>
     </row>
-    <row r="33" spans="1:32" ht="80" x14ac:dyDescent="0.2">
-      <c r="A33" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="B33" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="C33" s="7"/>
-      <c r="D33" s="7"/>
-      <c r="E33" s="7"/>
-      <c r="F33" s="6"/>
+    <row r="33" spans="1:32" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A33" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="B33" s="26" t="s">
+        <v>60</v>
+      </c>
+      <c r="C33" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="D33" s="26" t="s">
+        <v>63</v>
+      </c>
+      <c r="E33" s="26"/>
+      <c r="F33" s="6" t="s">
+        <v>79</v>
+      </c>
       <c r="G33" s="6"/>
-      <c r="H33" s="6" t="s">
-        <v>96</v>
-      </c>
+      <c r="H33" s="6"/>
       <c r="I33" s="6"/>
       <c r="J33" s="6"/>
       <c r="K33" s="6"/>
       <c r="L33" s="6"/>
       <c r="M33" s="6"/>
-      <c r="N33" s="6"/>
-      <c r="O33" s="6"/>
+      <c r="N33" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="O33" s="6" t="s">
+        <v>113</v>
+      </c>
       <c r="P33" s="6"/>
       <c r="Q33" s="6"/>
       <c r="R33" s="6"/>
-      <c r="S33" s="6" t="s">
-        <v>152</v>
-      </c>
-      <c r="T33" s="6"/>
-      <c r="U33" s="6"/>
+      <c r="S33" s="6"/>
+      <c r="T33" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="U33" s="6" t="s">
+        <v>136</v>
+      </c>
       <c r="V33" s="6"/>
       <c r="W33" s="6"/>
-      <c r="X33" s="6"/>
+      <c r="X33" s="6" t="s">
+        <v>156</v>
+      </c>
       <c r="Y33" s="6"/>
       <c r="Z33" s="6"/>
       <c r="AA33" s="6"/>
       <c r="AB33" s="6"/>
-      <c r="AC33" s="1"/>
-      <c r="AD33" s="1"/>
-      <c r="AE33" s="1"/>
+      <c r="AC33" s="5"/>
+      <c r="AD33" s="5"/>
+      <c r="AE33" s="5"/>
       <c r="AF33" s="1"/>
     </row>
-    <row r="34" spans="1:32" ht="350" x14ac:dyDescent="0.2">
-      <c r="A34" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="B34" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="C34" s="7" t="s">
+    <row r="34" spans="1:32" ht="64" x14ac:dyDescent="0.2">
+      <c r="A34" s="27" t="s">
+        <v>53</v>
+      </c>
+      <c r="B34" s="26" t="s">
+        <v>60</v>
+      </c>
+      <c r="C34" s="26" t="s">
         <v>61</v>
       </c>
-      <c r="D34" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="E34" s="7"/>
-      <c r="F34" s="6" t="s">
-        <v>86</v>
-      </c>
+      <c r="D34" s="26"/>
+      <c r="E34" s="26"/>
+      <c r="F34" s="6"/>
       <c r="G34" s="6"/>
-      <c r="H34" s="6" t="s">
-        <v>97</v>
-      </c>
+      <c r="H34" s="6"/>
       <c r="I34" s="6"/>
       <c r="J34" s="6"/>
       <c r="K34" s="6"/>
       <c r="L34" s="6"/>
       <c r="M34" s="6"/>
-      <c r="N34" s="6" t="s">
-        <v>124</v>
-      </c>
+      <c r="N34" s="6"/>
       <c r="O34" s="6" t="s">
-        <v>131</v>
+        <v>114</v>
       </c>
       <c r="P34" s="6"/>
-      <c r="Q34" s="6" t="s">
-        <v>131</v>
-      </c>
+      <c r="Q34" s="6"/>
       <c r="R34" s="6"/>
       <c r="S34" s="6"/>
       <c r="T34" s="6"/>
-      <c r="U34" s="6"/>
+      <c r="U34" s="6" t="s">
+        <v>135</v>
+      </c>
       <c r="V34" s="6"/>
       <c r="W34" s="6"/>
-      <c r="X34" s="6" t="s">
-        <v>181</v>
-      </c>
+      <c r="X34" s="6"/>
       <c r="Y34" s="6"/>
       <c r="Z34" s="6"/>
       <c r="AA34" s="6"/>
       <c r="AB34" s="6"/>
-      <c r="AC34" s="1"/>
-      <c r="AD34" s="1"/>
-      <c r="AE34" s="1"/>
+      <c r="AC34" s="5"/>
+      <c r="AD34" s="5"/>
+      <c r="AE34" s="5"/>
       <c r="AF34" s="1"/>
     </row>
-    <row r="35" spans="1:32" ht="112" x14ac:dyDescent="0.2">
-      <c r="A35" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="B35" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="C35" s="7"/>
-      <c r="D35" s="7"/>
-      <c r="E35" s="7"/>
+    <row r="35" spans="1:32" ht="48" x14ac:dyDescent="0.2">
+      <c r="A35" s="27" t="s">
+        <v>54</v>
+      </c>
+      <c r="B35" s="26" t="s">
+        <v>60</v>
+      </c>
+      <c r="C35" s="26"/>
+      <c r="D35" s="26"/>
+      <c r="E35" s="26"/>
       <c r="F35" s="6" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="G35" s="6"/>
       <c r="H35" s="6" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="I35" s="6"/>
       <c r="J35" s="6"/>
@@ -3000,12 +7364,12 @@
       <c r="O35" s="6"/>
       <c r="P35" s="6"/>
       <c r="Q35" s="6"/>
-      <c r="R35" s="6" t="s">
-        <v>150</v>
-      </c>
+      <c r="R35" s="6"/>
       <c r="S35" s="6"/>
       <c r="T35" s="6"/>
-      <c r="U35" s="6"/>
+      <c r="U35" s="6" t="s">
+        <v>137</v>
+      </c>
       <c r="V35" s="6"/>
       <c r="W35" s="6"/>
       <c r="X35" s="6"/>
@@ -3013,12 +7377,165 @@
       <c r="Z35" s="6"/>
       <c r="AA35" s="6"/>
       <c r="AB35" s="6"/>
-      <c r="AC35" s="1"/>
-      <c r="AD35" s="1"/>
-      <c r="AE35" s="1"/>
+      <c r="AC35" s="5"/>
+      <c r="AD35" s="5"/>
+      <c r="AE35" s="5"/>
       <c r="AF35" s="1"/>
+    </row>
+    <row r="36" spans="1:32" ht="48" x14ac:dyDescent="0.2">
+      <c r="A36" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="B36" s="26" t="s">
+        <v>58</v>
+      </c>
+      <c r="C36" s="26"/>
+      <c r="D36" s="26"/>
+      <c r="E36" s="26"/>
+      <c r="F36" s="6"/>
+      <c r="G36" s="6"/>
+      <c r="H36" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="I36" s="6"/>
+      <c r="J36" s="6"/>
+      <c r="K36" s="6"/>
+      <c r="L36" s="6"/>
+      <c r="M36" s="6"/>
+      <c r="N36" s="6"/>
+      <c r="O36" s="6"/>
+      <c r="P36" s="6"/>
+      <c r="Q36" s="6"/>
+      <c r="R36" s="6"/>
+      <c r="S36" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="T36" s="6"/>
+      <c r="U36" s="6"/>
+      <c r="V36" s="6"/>
+      <c r="W36" s="6"/>
+      <c r="X36" s="6"/>
+      <c r="Y36" s="6"/>
+      <c r="Z36" s="6"/>
+      <c r="AA36" s="6"/>
+      <c r="AB36" s="6"/>
+      <c r="AC36" s="5"/>
+      <c r="AD36" s="5"/>
+      <c r="AE36" s="5"/>
+      <c r="AF36" s="1"/>
+    </row>
+    <row r="37" spans="1:32" ht="224" x14ac:dyDescent="0.2">
+      <c r="A37" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="B37" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="C37" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="D37" s="26" t="s">
+        <v>63</v>
+      </c>
+      <c r="E37" s="26" t="s">
+        <v>167</v>
+      </c>
+      <c r="F37" s="6" t="s">
+        <v>256</v>
+      </c>
+      <c r="G37" s="6"/>
+      <c r="H37" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="I37" s="6"/>
+      <c r="J37" s="6"/>
+      <c r="K37" s="6"/>
+      <c r="L37" s="6"/>
+      <c r="M37" s="6"/>
+      <c r="N37" s="6" t="s">
+        <v>257</v>
+      </c>
+      <c r="O37" s="6" t="s">
+        <v>254</v>
+      </c>
+      <c r="P37" s="6"/>
+      <c r="Q37" s="6" t="s">
+        <v>254</v>
+      </c>
+      <c r="R37" s="6"/>
+      <c r="S37" s="6"/>
+      <c r="T37" s="6"/>
+      <c r="U37" s="6"/>
+      <c r="V37" s="6"/>
+      <c r="W37" s="6"/>
+      <c r="X37" s="6" t="s">
+        <v>258</v>
+      </c>
+      <c r="Y37" s="6"/>
+      <c r="Z37" s="6" t="s">
+        <v>252</v>
+      </c>
+      <c r="AA37" s="6" t="s">
+        <v>253</v>
+      </c>
+      <c r="AB37" s="24" t="s">
+        <v>255</v>
+      </c>
+      <c r="AC37" s="30" t="s">
+        <v>259</v>
+      </c>
+      <c r="AD37" s="19" t="s">
+        <v>260</v>
+      </c>
+      <c r="AE37" s="5"/>
+      <c r="AF37" s="1"/>
+    </row>
+    <row r="38" spans="1:32" ht="64" x14ac:dyDescent="0.2">
+      <c r="A38" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="B38" s="26" t="s">
+        <v>58</v>
+      </c>
+      <c r="C38" s="26"/>
+      <c r="D38" s="26"/>
+      <c r="E38" s="26"/>
+      <c r="F38" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="G38" s="6"/>
+      <c r="H38" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="I38" s="6"/>
+      <c r="J38" s="6"/>
+      <c r="K38" s="6"/>
+      <c r="L38" s="6"/>
+      <c r="M38" s="6"/>
+      <c r="N38" s="6"/>
+      <c r="O38" s="6"/>
+      <c r="P38" s="6"/>
+      <c r="Q38" s="6"/>
+      <c r="R38" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="S38" s="6"/>
+      <c r="T38" s="6"/>
+      <c r="U38" s="6"/>
+      <c r="V38" s="6"/>
+      <c r="W38" s="6"/>
+      <c r="X38" s="6"/>
+      <c r="Y38" s="6"/>
+      <c r="Z38" s="6"/>
+      <c r="AA38" s="6"/>
+      <c r="AB38" s="6"/>
+      <c r="AC38" s="5"/>
+      <c r="AD38" s="5"/>
+      <c r="AE38" s="5"/>
+      <c r="AF38" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>